--- a/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
+++ b/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
+++ b/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GenreGrouping" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TopOffendingApps" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
   <si>
     <t>Genre</t>
   </si>
@@ -157,6 +156,147 @@
   </si>
   <si>
     <t>OprivRate</t>
+  </si>
+  <si>
+    <t>[무협]태극문 1권 - 에피루스 용대운 무협대작</t>
+  </si>
+  <si>
+    <t>Good Luck Messages</t>
+  </si>
+  <si>
+    <t>home17</t>
+  </si>
+  <si>
+    <t>Gun Disassembly 2</t>
+  </si>
+  <si>
+    <t>Quick Dial Free</t>
+  </si>
+  <si>
+    <t>Dial Calling Card</t>
+  </si>
+  <si>
+    <t>Pishaver Geceleri 1</t>
+  </si>
+  <si>
+    <t>Pishaver Geceleri 2</t>
+  </si>
+  <si>
+    <t>myLocalSMS</t>
+  </si>
+  <si>
+    <t>Les Primaires Citoyennes</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>JavaFiles</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>OPrivCount</t>
+  </si>
+  <si>
+    <t>Galaxy (OWA Contacts Sync) ish</t>
+  </si>
+  <si>
+    <t>火车票抢票大师</t>
+  </si>
+  <si>
+    <t>SMS FootPrint</t>
+  </si>
+  <si>
+    <t>Orlando City Guide</t>
+  </si>
+  <si>
+    <t>PSN Payments</t>
+  </si>
+  <si>
+    <t>ICD-10 Doc Guide</t>
+  </si>
+  <si>
+    <t>CSL Fun Club</t>
+  </si>
+  <si>
+    <t>TopCoder Mobile</t>
+  </si>
+  <si>
+    <t>스토리쿡-이유식</t>
+  </si>
+  <si>
+    <t>컬러링무료다운,인기벨소리,추천문자음,카톡알림음-벨천지</t>
+  </si>
+  <si>
+    <t>"3-5"</t>
+  </si>
+  <si>
+    <t>SMS Jack</t>
+  </si>
+  <si>
+    <t>第一财经 一财网</t>
+  </si>
+  <si>
+    <t>W10 Keyboard PRO-Trial[Korean]</t>
+  </si>
+  <si>
+    <t>English - Korean Dictionary</t>
+  </si>
+  <si>
+    <t>PicaSim: Free flight simulator</t>
+  </si>
+  <si>
+    <t>컴퓨터밀링선반기능사 필기시험 기출문제</t>
+  </si>
+  <si>
+    <t>Ο Ηλίας στο χωριό του…,Ά.Κόνδη</t>
+  </si>
+  <si>
+    <t>Locale Airplane Mode Plug-in</t>
+  </si>
+  <si>
+    <t>Custom Car Home</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>Ratio_Java</t>
+  </si>
+  <si>
+    <t>Ratio_LOC</t>
+  </si>
+  <si>
+    <t>Times Telecom iKall</t>
+  </si>
+  <si>
+    <t>music box for babies</t>
+  </si>
+  <si>
+    <t>carousel for babies</t>
+  </si>
+  <si>
+    <t>farm and carnival shooting</t>
+  </si>
+  <si>
+    <t>Alphabet Soup</t>
+  </si>
+  <si>
+    <t>CRC Radios</t>
+  </si>
+  <si>
+    <t>한국폴리텍대학</t>
+  </si>
+  <si>
+    <t>GpsGolfMapLite</t>
+  </si>
+  <si>
+    <t>Floyd's 99</t>
+  </si>
+  <si>
+    <t>ZTE WiFi Monitor</t>
   </si>
 </sst>
 </file>
@@ -206,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -221,6 +361,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,7 +2716,7 @@
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="5">
@@ -2602,7 +2751,7 @@
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43" s="9">
         <v>3.5</v>
       </c>
       <c r="B43" s="5">
@@ -2788,24 +2937,983 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>8974</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>452.38</v>
+      </c>
+      <c r="G4">
+        <v>21.2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>77</v>
+      </c>
+      <c r="L4">
+        <v>7658</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>77.92</v>
+      </c>
+      <c r="O4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>7298</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>109.59</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>47</v>
+      </c>
+      <c r="L5">
+        <v>6605</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>63.83</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>5854</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>104.48</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>104</v>
+      </c>
+      <c r="L6">
+        <v>16524</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>57.69</v>
+      </c>
+      <c r="O6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>5945</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>86.21</v>
+      </c>
+      <c r="G7">
+        <v>8.4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>54</v>
+      </c>
+      <c r="L7">
+        <v>5548</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>55.56</v>
+      </c>
+      <c r="O7">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>10619</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>72.92</v>
+      </c>
+      <c r="G8">
+        <v>6.6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>55</v>
+      </c>
+      <c r="L8">
+        <v>5027</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>54.55</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>103</v>
+      </c>
+      <c r="D9">
+        <v>12537</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="G9">
+        <v>5.6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>94</v>
+      </c>
+      <c r="L9">
+        <v>9321</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>42.55</v>
+      </c>
+      <c r="O9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>7878</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>66.67</v>
+      </c>
+      <c r="G10">
+        <v>6.3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>118</v>
+      </c>
+      <c r="L10">
+        <v>13053</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>42.37</v>
+      </c>
+      <c r="O10">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>83</v>
+      </c>
+      <c r="D11">
+        <v>11662</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>60.24</v>
+      </c>
+      <c r="G11">
+        <v>4.3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>118</v>
+      </c>
+      <c r="L11">
+        <v>13053</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>42.37</v>
+      </c>
+      <c r="O11">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>134</v>
+      </c>
+      <c r="D12">
+        <v>13583</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>44.78</v>
+      </c>
+      <c r="G12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>49</v>
+      </c>
+      <c r="L12">
+        <v>6829</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>40.82</v>
+      </c>
+      <c r="O12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <v>7684</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>44.78</v>
+      </c>
+      <c r="G13">
+        <v>3.9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>76</v>
+      </c>
+      <c r="L13">
+        <v>5648</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>39.47</v>
+      </c>
+      <c r="O13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>205</v>
+      </c>
+      <c r="D14">
+        <v>14640</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>43.9</v>
+      </c>
+      <c r="G14">
+        <v>6.1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>63</v>
+      </c>
+      <c r="L14">
+        <v>6333</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>31.75</v>
+      </c>
+      <c r="O14">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>11889</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>42.86</v>
+      </c>
+      <c r="G15">
+        <v>2.5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15">
+        <v>101</v>
+      </c>
+      <c r="L15">
+        <v>9474</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>29.7</v>
+      </c>
+      <c r="O15">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>11889</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>42.86</v>
+      </c>
+      <c r="G16">
+        <v>2.5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16">
+        <v>202</v>
+      </c>
+      <c r="L16">
+        <v>22048</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>29.7</v>
+      </c>
+      <c r="O16">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>70</v>
+      </c>
+      <c r="D17">
+        <v>11889</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>42.86</v>
+      </c>
+      <c r="G17">
+        <v>2.5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>222</v>
+      </c>
+      <c r="L17">
+        <v>17354</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>27.03</v>
+      </c>
+      <c r="O17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>7644</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>37.04</v>
+      </c>
+      <c r="G18">
+        <v>1.3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18">
+        <v>74</v>
+      </c>
+      <c r="L18">
+        <v>8859</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>27.03</v>
+      </c>
+      <c r="O18">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>109</v>
+      </c>
+      <c r="D19">
+        <v>9328</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G19">
+        <v>4.3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>156</v>
+      </c>
+      <c r="L19">
+        <v>16342</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>25.64</v>
+      </c>
+      <c r="O19">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>86</v>
+      </c>
+      <c r="D20">
+        <v>9318</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="G20">
+        <v>3.2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>156</v>
+      </c>
+      <c r="L20">
+        <v>18119</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>25.64</v>
+      </c>
+      <c r="O20">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>58</v>
+      </c>
+      <c r="D21">
+        <v>8939</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="G21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21">
+        <v>82</v>
+      </c>
+      <c r="L21">
+        <v>5953</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>24.39</v>
+      </c>
+      <c r="O21">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>147</v>
+      </c>
+      <c r="D22">
+        <v>16735</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>34.01</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22">
+        <v>47</v>
+      </c>
+      <c r="L22">
+        <v>5987</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>21.28</v>
+      </c>
+      <c r="O22">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>239</v>
+      </c>
+      <c r="D23">
+        <v>25816</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>33.47</v>
+      </c>
+      <c r="G23">
+        <v>3.1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>1639</v>
+      </c>
+      <c r="L23">
+        <v>101057</v>
+      </c>
+      <c r="M23">
+        <v>34</v>
+      </c>
+      <c r="N23">
+        <v>20.74</v>
+      </c>
+      <c r="O23">
+        <v>3.4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
+++ b/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="155">
   <si>
     <t>Genre</t>
   </si>
@@ -297,6 +297,189 @@
   </si>
   <si>
     <t>ZTE WiFi Monitor</t>
+  </si>
+  <si>
+    <t>ESPN 950 WXGI</t>
+  </si>
+  <si>
+    <t>짝지 - 짝사랑 매칭</t>
+  </si>
+  <si>
+    <t>PakistanCall 완전 무료 파키스탄 전화</t>
+  </si>
+  <si>
+    <t>女性生理期瘦身小秘書</t>
+  </si>
+  <si>
+    <t>AutoSMS</t>
+  </si>
+  <si>
+    <t>방송통신위원회</t>
+  </si>
+  <si>
+    <t>Parental Control for Mobile</t>
+  </si>
+  <si>
+    <t>86무료국제전화</t>
+  </si>
+  <si>
+    <t>HarbourCity Guide</t>
+  </si>
+  <si>
+    <t>FTSE</t>
+  </si>
+  <si>
+    <t>12合1實用工具箱(480*800)</t>
+  </si>
+  <si>
+    <t>Gandul.info</t>
+  </si>
+  <si>
+    <t>Philip F.- Tennis Betting Tips</t>
+  </si>
+  <si>
+    <t>Connect to S800c</t>
+  </si>
+  <si>
+    <t>World of Goo Guide</t>
+  </si>
+  <si>
+    <t>Fan Angry Birds</t>
+  </si>
+  <si>
+    <t>Wellness</t>
+  </si>
+  <si>
+    <t>FaxDocument Send Fax Instantly</t>
+  </si>
+  <si>
+    <t>Easy Recall</t>
+  </si>
+  <si>
+    <t>Daily Bible Verse</t>
+  </si>
+  <si>
+    <t>Fiches Révisions Bac S, ES, L</t>
+  </si>
+  <si>
+    <t>Racing Boats</t>
+  </si>
+  <si>
+    <t>翼支付</t>
+  </si>
+  <si>
+    <t>ギャラリーマップ</t>
+  </si>
+  <si>
+    <t>Real Ghost Finder Lite</t>
+  </si>
+  <si>
+    <t>Photo Partner Match</t>
+  </si>
+  <si>
+    <t>EasyN</t>
+  </si>
+  <si>
+    <t>Palumbo Sila Webcam</t>
+  </si>
+  <si>
+    <t>So-netブログ</t>
+  </si>
+  <si>
+    <t>Mileage Tracker</t>
+  </si>
+  <si>
+    <t>3D Urban Madness</t>
+  </si>
+  <si>
+    <t>Racing</t>
+  </si>
+  <si>
+    <t>Smart Task Manager FREE</t>
+  </si>
+  <si>
+    <t>SpyPhone by MAGMA</t>
+  </si>
+  <si>
+    <t>FoxFi (WiFi Tether w/o Root)</t>
+  </si>
+  <si>
+    <t>Calculator Area &amp; Perimeter</t>
+  </si>
+  <si>
+    <t>(Lite)Memory Card (단어 암기 카드)</t>
+  </si>
+  <si>
+    <t>Call log Smart Extras™</t>
+  </si>
+  <si>
+    <t>Sportsgym Scandinavia</t>
+  </si>
+  <si>
+    <t>K-POP★Beat the Music ★Plus</t>
+  </si>
+  <si>
+    <t>Of Mice and Men</t>
+  </si>
+  <si>
+    <t>JALライブ壁紙　スケジュール版</t>
+  </si>
+  <si>
+    <t>WiFi Location Toggle</t>
+  </si>
+  <si>
+    <t>iSpeak</t>
+  </si>
+  <si>
+    <t>Kids University Lite</t>
+  </si>
+  <si>
+    <t>Decision Helper Free</t>
+  </si>
+  <si>
+    <t>Moon black &amp; white</t>
+  </si>
+  <si>
+    <t>Christmas songs free</t>
+  </si>
+  <si>
+    <t>3x battery saver - iBattery</t>
+  </si>
+  <si>
+    <t>mWydatki - mBank</t>
+  </si>
+  <si>
+    <t>Crossbow Shooting</t>
+  </si>
+  <si>
+    <t>페이씽크(ST-500용) 올밴</t>
+  </si>
+  <si>
+    <t>Army Rifle Marksmanship Guide</t>
+  </si>
+  <si>
+    <t>Smart Clipboard</t>
+  </si>
+  <si>
+    <t>Andaal Thiruppavai Pasurams</t>
+  </si>
+  <si>
+    <t>telview mobile cctv</t>
+  </si>
+  <si>
+    <t>Manner Camera</t>
+  </si>
+  <si>
+    <t>Star Wars Flashlight 911 Free</t>
+  </si>
+  <si>
+    <t>ViVirus</t>
+  </si>
+  <si>
+    <t>Islam - Salafi Manhaj - Dawah</t>
+  </si>
+  <si>
+    <t>Unit Converter</t>
   </si>
 </sst>
 </file>
@@ -2937,20 +3120,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2966,8 +3149,9 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
@@ -2979,16 +3163,17 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
@@ -3010,30 +3195,36 @@
       <c r="G3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -3055,29 +3246,35 @@
       <c r="G4">
         <v>21.2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4">
+        <v>51.11</v>
+      </c>
+      <c r="J4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>5</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>77</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>7658</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>6</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>77.92</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -3099,29 +3296,35 @@
       <c r="G5">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5">
+        <v>51.25</v>
+      </c>
+      <c r="J5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>47</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>6605</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>63.83</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -3143,29 +3346,35 @@
       <c r="G6">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>104</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>16524</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>6</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>57.69</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -3187,29 +3396,35 @@
       <c r="G7">
         <v>8.4</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7">
         <v>50</v>
       </c>
       <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>54</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>5548</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>55.56</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -3231,29 +3446,35 @@
       <c r="G8">
         <v>6.6</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>33</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>55</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>5027</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>3</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>54.55</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -3275,29 +3496,35 @@
       <c r="G9">
         <v>5.6</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
         <v>52</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>10</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>94</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>9321</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>4</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>42.55</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -3319,29 +3546,35 @@
       <c r="G10">
         <v>6.3</v>
       </c>
-      <c r="I10" t="s">
-        <v>53</v>
+      <c r="H10">
+        <v>50</v>
       </c>
       <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s">
         <v>5</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>118</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>13053</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>5</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>42.37</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -3363,29 +3596,35 @@
       <c r="G11">
         <v>4.3</v>
       </c>
-      <c r="I11" t="s">
-        <v>54</v>
+      <c r="H11">
+        <v>50</v>
       </c>
       <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" t="s">
         <v>5</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>118</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>13053</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>5</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>42.37</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -3407,29 +3646,35 @@
       <c r="G12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12">
+        <v>51.11</v>
+      </c>
+      <c r="J12" t="s">
         <v>55</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>10</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>49</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>6829</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>40.82</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -3451,29 +3696,35 @@
       <c r="G13">
         <v>3.9</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13">
+        <v>51.11</v>
+      </c>
+      <c r="J13" t="s">
         <v>56</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>22</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>76</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>5648</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>3</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>39.47</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -3495,29 +3746,35 @@
       <c r="G14">
         <v>6.1</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14">
+        <v>52.63</v>
+      </c>
+      <c r="J14" t="s">
         <v>72</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>10</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>63</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>6333</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>31.75</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -3539,29 +3796,35 @@
       <c r="G15">
         <v>2.5</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
         <v>73</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>22</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>101</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>9474</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>29.7</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -3583,29 +3846,35 @@
       <c r="G16">
         <v>2.5</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
         <v>74</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>33</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>202</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>22048</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>6</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>29.7</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -3627,29 +3896,35 @@
       <c r="G17">
         <v>2.5</v>
       </c>
-      <c r="I17" t="s">
-        <v>75</v>
+      <c r="H17">
+        <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>222</v>
+        <v>76</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
       </c>
       <c r="L17">
-        <v>17354</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>8859</v>
       </c>
       <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
         <v>27.03</v>
       </c>
-      <c r="O17">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q17">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -3671,29 +3946,35 @@
       <c r="G18">
         <v>1.3</v>
       </c>
-      <c r="I18" t="s">
-        <v>76</v>
+      <c r="H18">
+        <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>8859</v>
+        <v>222</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>17354</v>
       </c>
       <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="O18">
         <v>27.03</v>
       </c>
-      <c r="O18">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>3.5</v>
+      </c>
+      <c r="Q18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -3715,29 +3996,35 @@
       <c r="G19">
         <v>4.3</v>
       </c>
-      <c r="I19" t="s">
-        <v>77</v>
+      <c r="H19">
+        <v>51.11</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19">
+        <v>78</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19">
         <v>156</v>
       </c>
-      <c r="L19">
-        <v>16342</v>
-      </c>
       <c r="M19">
+        <v>18119</v>
+      </c>
+      <c r="N19">
         <v>4</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>25.64</v>
       </c>
-      <c r="O19">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3759,29 +4046,35 @@
       <c r="G20">
         <v>3.2</v>
       </c>
-      <c r="I20" t="s">
-        <v>78</v>
+      <c r="H20">
+        <v>51.11</v>
       </c>
       <c r="J20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20">
+        <v>77</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20">
         <v>156</v>
       </c>
-      <c r="L20">
-        <v>18119</v>
-      </c>
       <c r="M20">
+        <v>16342</v>
+      </c>
+      <c r="N20">
         <v>4</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>25.64</v>
       </c>
-      <c r="O20">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>2.4</v>
+      </c>
+      <c r="Q20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -3803,29 +4096,35 @@
       <c r="G21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s">
         <v>79</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>33</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>82</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>5953</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>2</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>24.39</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -3847,29 +4146,35 @@
       <c r="G22">
         <v>3</v>
       </c>
-      <c r="I22" t="s">
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s">
         <v>80</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>33</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>47</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>5987</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>21.28</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -3891,26 +4196,1532 @@
       <c r="G23">
         <v>3.1</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
         <v>81</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>10</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1639</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>101057</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>34</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>20.74</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>3.4</v>
+      </c>
+      <c r="Q23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>11251</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>33.33</v>
+      </c>
+      <c r="G24">
+        <v>2.7</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="J24" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24">
+        <v>195</v>
+      </c>
+      <c r="M24">
+        <v>14565</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>20.51</v>
+      </c>
+      <c r="P24">
+        <v>2.7</v>
+      </c>
+      <c r="Q24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>245</v>
+      </c>
+      <c r="D25">
+        <v>13027</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>32.65</v>
+      </c>
+      <c r="G25">
+        <v>6.1</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="J25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25">
+        <v>51</v>
+      </c>
+      <c r="M25">
+        <v>7742</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>19.61</v>
+      </c>
+      <c r="P25">
+        <v>1.3</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>97</v>
+      </c>
+      <c r="D26">
+        <v>7443</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>30.93</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="J26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26">
+        <v>468</v>
+      </c>
+      <c r="M26">
+        <v>63529</v>
+      </c>
+      <c r="N26">
+        <v>9</v>
+      </c>
+      <c r="O26">
+        <v>19.23</v>
+      </c>
+      <c r="P26">
+        <v>1.4</v>
+      </c>
+      <c r="Q26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>67</v>
+      </c>
+      <c r="D27">
+        <v>7887</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>29.85</v>
+      </c>
+      <c r="G27">
+        <v>2.5</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="J27" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>113</v>
+      </c>
+      <c r="M27">
+        <v>11323</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>17.7</v>
+      </c>
+      <c r="P27">
+        <v>1.8</v>
+      </c>
+      <c r="Q27">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <v>7938</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>29.41</v>
+      </c>
+      <c r="G28">
+        <v>2.5</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="J28" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28">
+        <v>115</v>
+      </c>
+      <c r="M28">
+        <v>11089</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>17.39</v>
+      </c>
+      <c r="P28">
+        <v>1.8</v>
+      </c>
+      <c r="Q28">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>146</v>
+      </c>
+      <c r="D29">
+        <v>10707</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>27.4</v>
+      </c>
+      <c r="G29">
+        <v>3.7</v>
+      </c>
+      <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29">
+        <v>118</v>
+      </c>
+      <c r="M29">
+        <v>9919</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>16.95</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>113</v>
+      </c>
+      <c r="D30">
+        <v>8926</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>26.55</v>
+      </c>
+      <c r="G30">
+        <v>3.4</v>
+      </c>
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="J30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>124</v>
+      </c>
+      <c r="M30">
+        <v>7872</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>16.13</v>
+      </c>
+      <c r="P30">
+        <v>2.5</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>193</v>
+      </c>
+      <c r="D31">
+        <v>14202</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>25.91</v>
+      </c>
+      <c r="G31">
+        <v>3.5</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31">
+        <v>125</v>
+      </c>
+      <c r="M31">
+        <v>8670</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>16</v>
+      </c>
+      <c r="P31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q31">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>79</v>
+      </c>
+      <c r="D32">
+        <v>8874</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>25.32</v>
+      </c>
+      <c r="G32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H32">
+        <v>50</v>
+      </c>
+      <c r="J32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>321</v>
+      </c>
+      <c r="M32">
+        <v>30825</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>15.58</v>
+      </c>
+      <c r="P32">
+        <v>1.6</v>
+      </c>
+      <c r="Q32">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>81</v>
+      </c>
+      <c r="D33">
+        <v>5416</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>24.69</v>
+      </c>
+      <c r="G33">
+        <v>3.7</v>
+      </c>
+      <c r="H33">
+        <v>51.11</v>
+      </c>
+      <c r="J33" t="s">
+        <v>134</v>
+      </c>
+      <c r="K33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>270</v>
+      </c>
+      <c r="M33">
+        <v>27068</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>14.81</v>
+      </c>
+      <c r="P33">
+        <v>1.5</v>
+      </c>
+      <c r="Q33">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>751</v>
+      </c>
+      <c r="D34">
+        <v>75943</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>23.97</v>
+      </c>
+      <c r="G34">
+        <v>2.4</v>
+      </c>
+      <c r="H34">
+        <v>50</v>
+      </c>
+      <c r="J34" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34">
+        <v>68</v>
+      </c>
+      <c r="M34">
+        <v>6510</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>14.71</v>
+      </c>
+      <c r="P34">
+        <v>1.5</v>
+      </c>
+      <c r="Q34">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>84</v>
+      </c>
+      <c r="D35">
+        <v>8670</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>23.81</v>
+      </c>
+      <c r="G35">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H35">
+        <v>51.11</v>
+      </c>
+      <c r="J35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35">
+        <v>68</v>
+      </c>
+      <c r="M35">
+        <v>6649</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>14.71</v>
+      </c>
+      <c r="P35">
+        <v>1.5</v>
+      </c>
+      <c r="Q35">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>89</v>
+      </c>
+      <c r="D36">
+        <v>8233</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>22.47</v>
+      </c>
+      <c r="G36">
+        <v>2.4</v>
+      </c>
+      <c r="H36">
+        <v>51.11</v>
+      </c>
+      <c r="J36" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36">
+        <v>138</v>
+      </c>
+      <c r="M36">
+        <v>10895</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>14.49</v>
+      </c>
+      <c r="P36">
+        <v>1.8</v>
+      </c>
+      <c r="Q36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>93</v>
+      </c>
+      <c r="D37">
+        <v>6638</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>21.51</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>51.11</v>
+      </c>
+      <c r="J37" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37">
+        <v>277</v>
+      </c>
+      <c r="M37">
+        <v>28184</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <v>14.44</v>
+      </c>
+      <c r="P37">
+        <v>1.4</v>
+      </c>
+      <c r="Q37">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>93</v>
+      </c>
+      <c r="D38">
+        <v>12871</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>21.51</v>
+      </c>
+      <c r="G38">
+        <v>1.6</v>
+      </c>
+      <c r="H38">
+        <v>51.11</v>
+      </c>
+      <c r="J38" t="s">
+        <v>139</v>
+      </c>
+      <c r="K38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38">
+        <v>70</v>
+      </c>
+      <c r="M38">
+        <v>8285</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>14.29</v>
+      </c>
+      <c r="P38">
+        <v>1.2</v>
+      </c>
+      <c r="Q38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>196</v>
+      </c>
+      <c r="D39">
+        <v>19525</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>20.41</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>50</v>
+      </c>
+      <c r="J39" t="s">
+        <v>140</v>
+      </c>
+      <c r="K39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39">
+        <v>70</v>
+      </c>
+      <c r="M39">
+        <v>6823</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>14.29</v>
+      </c>
+      <c r="P39">
+        <v>1.5</v>
+      </c>
+      <c r="Q39">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>109</v>
+      </c>
+      <c r="D40">
+        <v>7562</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="G40">
+        <v>2.6</v>
+      </c>
+      <c r="H40">
+        <v>51.11</v>
+      </c>
+      <c r="J40" t="s">
+        <v>141</v>
+      </c>
+      <c r="K40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40">
+        <v>71</v>
+      </c>
+      <c r="M40">
+        <v>7600</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>14.08</v>
+      </c>
+      <c r="P40">
+        <v>1.3</v>
+      </c>
+      <c r="Q40">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>164</v>
+      </c>
+      <c r="D41">
+        <v>15280</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>18.29</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>51.11</v>
+      </c>
+      <c r="J41" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41">
+        <v>361</v>
+      </c>
+      <c r="M41">
+        <v>32564</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <v>13.85</v>
+      </c>
+      <c r="P41">
+        <v>1.5</v>
+      </c>
+      <c r="Q41">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>220</v>
+      </c>
+      <c r="D42">
+        <v>24632</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>18.18</v>
+      </c>
+      <c r="G42">
+        <v>1.6</v>
+      </c>
+      <c r="H42">
+        <v>50</v>
+      </c>
+      <c r="J42" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>73</v>
+      </c>
+      <c r="M42">
+        <v>7411</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>13.7</v>
+      </c>
+      <c r="P42">
+        <v>1.3</v>
+      </c>
+      <c r="Q42">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>111</v>
+      </c>
+      <c r="D43">
+        <v>12040</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>18.02</v>
+      </c>
+      <c r="G43">
+        <v>1.7</v>
+      </c>
+      <c r="H43">
+        <v>51.11</v>
+      </c>
+      <c r="J43" t="s">
+        <v>144</v>
+      </c>
+      <c r="K43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43">
+        <v>305</v>
+      </c>
+      <c r="M43">
+        <v>23751</v>
+      </c>
+      <c r="N43">
+        <v>4</v>
+      </c>
+      <c r="O43">
+        <v>13.11</v>
+      </c>
+      <c r="P43">
+        <v>1.7</v>
+      </c>
+      <c r="Q43">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>353</v>
+      </c>
+      <c r="D44">
+        <v>24155</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>17</v>
+      </c>
+      <c r="G44">
+        <v>2.5</v>
+      </c>
+      <c r="H44">
+        <v>50</v>
+      </c>
+      <c r="J44" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44">
+        <v>699</v>
+      </c>
+      <c r="M44">
+        <v>80094</v>
+      </c>
+      <c r="N44">
+        <v>9</v>
+      </c>
+      <c r="O44">
+        <v>12.88</v>
+      </c>
+      <c r="P44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q44">
+        <v>51.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45">
+        <v>59</v>
+      </c>
+      <c r="D45">
+        <v>5184</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>16.95</v>
+      </c>
+      <c r="G45">
+        <v>1.9</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>146</v>
+      </c>
+      <c r="K45" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <v>311</v>
+      </c>
+      <c r="M45">
+        <v>32351</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>12.86</v>
+      </c>
+      <c r="P45">
+        <v>1.2</v>
+      </c>
+      <c r="Q45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>599</v>
+      </c>
+      <c r="D46">
+        <v>42595</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="G46">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H46">
+        <v>53</v>
+      </c>
+      <c r="J46" t="s">
+        <v>147</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46">
+        <v>78</v>
+      </c>
+      <c r="M46">
+        <v>8931</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>12.82</v>
+      </c>
+      <c r="P46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>186</v>
+      </c>
+      <c r="D47">
+        <v>15381</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>16.13</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>50</v>
+      </c>
+      <c r="J47" t="s">
+        <v>148</v>
+      </c>
+      <c r="K47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>321</v>
+      </c>
+      <c r="M47">
+        <v>33442</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>12.46</v>
+      </c>
+      <c r="P47">
+        <v>1.2</v>
+      </c>
+      <c r="Q47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>62</v>
+      </c>
+      <c r="D48">
+        <v>6920</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>16.13</v>
+      </c>
+      <c r="G48">
+        <v>1.4</v>
+      </c>
+      <c r="H48">
+        <v>51.11</v>
+      </c>
+      <c r="J48" t="s">
+        <v>149</v>
+      </c>
+      <c r="K48" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48">
+        <v>886</v>
+      </c>
+      <c r="M48">
+        <v>134583</v>
+      </c>
+      <c r="N48">
+        <v>11</v>
+      </c>
+      <c r="O48">
+        <v>12.42</v>
+      </c>
+      <c r="P48">
+        <v>0.8</v>
+      </c>
+      <c r="Q48">
+        <v>53.33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49">
+        <v>63</v>
+      </c>
+      <c r="D49">
+        <v>7089</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>15.87</v>
+      </c>
+      <c r="G49">
+        <v>1.4</v>
+      </c>
+      <c r="H49">
+        <v>51.11</v>
+      </c>
+      <c r="J49" t="s">
+        <v>150</v>
+      </c>
+      <c r="K49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49">
+        <v>82</v>
+      </c>
+      <c r="M49">
+        <v>6694</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>12.2</v>
+      </c>
+      <c r="P49">
+        <v>1.5</v>
+      </c>
+      <c r="Q49">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>130</v>
+      </c>
+      <c r="D50">
+        <v>12044</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>15.38</v>
+      </c>
+      <c r="G50">
+        <v>1.7</v>
+      </c>
+      <c r="H50">
+        <v>51.11</v>
+      </c>
+      <c r="J50" t="s">
+        <v>151</v>
+      </c>
+      <c r="K50" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50">
+        <v>412</v>
+      </c>
+      <c r="M50">
+        <v>33361</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50">
+        <v>12.14</v>
+      </c>
+      <c r="P50">
+        <v>1.5</v>
+      </c>
+      <c r="Q50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51">
+        <v>66</v>
+      </c>
+      <c r="D51">
+        <v>6975</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>15.15</v>
+      </c>
+      <c r="G51">
+        <v>1.4</v>
+      </c>
+      <c r="H51">
+        <v>51.11</v>
+      </c>
+      <c r="J51" t="s">
+        <v>152</v>
+      </c>
+      <c r="K51" t="s">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>171</v>
+      </c>
+      <c r="M51">
+        <v>19254</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>11.7</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <v>138</v>
+      </c>
+      <c r="D52">
+        <v>15318</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>14.49</v>
+      </c>
+      <c r="G52">
+        <v>1.3</v>
+      </c>
+      <c r="H52">
+        <v>51.11</v>
+      </c>
+      <c r="J52" t="s">
+        <v>153</v>
+      </c>
+      <c r="K52" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52">
+        <v>86</v>
+      </c>
+      <c r="M52">
+        <v>9151</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>11.63</v>
+      </c>
+      <c r="P52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q52">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>71</v>
+      </c>
+      <c r="D53">
+        <v>6239</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>14.08</v>
+      </c>
+      <c r="G53">
+        <v>1.6</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53">
+        <v>88</v>
+      </c>
+      <c r="M53">
+        <v>8557</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>11.36</v>
+      </c>
+      <c r="P53">
+        <v>1.2</v>
+      </c>
+      <c r="Q53">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
+++ b/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="GenreGrouping" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="156">
   <si>
     <t>Genre</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>Unit Converter</t>
+  </si>
+  <si>
+    <t>OPrivRate</t>
   </si>
 </sst>
 </file>
@@ -854,18 +857,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,37 +890,40 @@
       <c r="G1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -939,38 +945,38 @@
       <c r="G2" s="2">
         <v>51.11</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>13</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>3.98</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>4</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>1.88</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>5.83</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>67.37</v>
       </c>
-      <c r="Q2" s="2">
-        <f>ABS(E2-M2)</f>
+      <c r="R2" s="2">
+        <f>ABS(E2-N2)</f>
         <v>1.88</v>
       </c>
-      <c r="R2" s="2" t="e">
-        <f>ROUND(ABS((E2/F2)-(M2/N2)),2)</f>
+      <c r="S2" s="2" t="e">
+        <f>ROUND(ABS((E2/F2)-(N2/O2)),2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -992,38 +998,38 @@
       <c r="G3" s="2">
         <v>92</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>7</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>4.3</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>4.57</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>1.33</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>5.5</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>75.62</v>
       </c>
-      <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q37" si="0">ABS(E3-M3)</f>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R37" si="0">ABS(E3-N3)</f>
         <v>0.66999999999999993</v>
       </c>
-      <c r="R3" s="2" t="e">
-        <f t="shared" ref="R3:R37" si="1">ROUND(ABS((E3/F3)-(M3/N3)),2)</f>
+      <c r="S3" s="2" t="e">
+        <f t="shared" ref="S3:S37" si="1">ROUND(ABS((E3/F3)-(N3/O3)),2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1045,37 +1051,37 @@
       <c r="G4">
         <v>21.17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>25</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3.8</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3.63</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2.89</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>8.4</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>60.12</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f t="shared" si="0"/>
         <v>1.56</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1097,38 +1103,38 @@
       <c r="G5" s="2">
         <v>64.739999999999995</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>3.93</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>3.33</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>2</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>5.67</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>81.040000000000006</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1150,37 +1156,37 @@
       <c r="G6">
         <v>50.95</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>44</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4.33</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.38</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>3</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>5.38</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>57.06</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>0.18000000000000016</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1202,37 +1208,37 @@
       <c r="G7">
         <v>50.18</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>6</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>18</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4.0199999999999996</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1.86</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>4.5599999999999996</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>12.88</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>50.22</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>1.4599999999999995</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1254,37 +1260,37 @@
       <c r="G8">
         <v>58.16</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>7</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2.4</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>4</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>2</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>73.47</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="1"/>
         <v>1.74</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1306,37 +1312,37 @@
       <c r="G9">
         <v>46.37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>28</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>4.01</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3.54</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2.5</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>5.56</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>58.41</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1358,38 +1364,38 @@
       <c r="G10" s="2">
         <v>50.89</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>3</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>1.67</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>12.5</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>51.11</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R10" s="2">
+      <c r="S10" s="2">
         <f t="shared" si="1"/>
         <v>0.19</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1411,37 +1417,37 @@
       <c r="G11">
         <v>58.82</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>10</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>44</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4.1100000000000003</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2.65</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>5.55</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>6.96</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>55.32</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <f t="shared" si="0"/>
         <v>0.34999999999999964</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1463,37 +1469,37 @@
       <c r="G12">
         <v>48.89</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>62</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4.16</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2.04</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>7.41</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>54.87</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <f t="shared" si="0"/>
         <v>0.12000000000000011</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1515,35 +1521,35 @@
       <c r="G13" s="2">
         <v>92</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="5"/>
+      <c r="J13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>4</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>3.8</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>6</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>13.5</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>48.56</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R13" s="2">
+      <c r="S13" s="2">
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1565,37 +1571,37 @@
       <c r="G14">
         <v>49.38</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>13</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>64</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3.99</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2.46</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>9.2100000000000009</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>65.709999999999994</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1617,37 +1623,37 @@
       <c r="G15">
         <v>48.64</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>14</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>23</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>4.07</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.65</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2.23</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>7.78</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>55.24</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <f t="shared" si="0"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1669,37 +1675,37 @@
       <c r="G16">
         <v>47.19</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>15</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>21</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>4.03</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3.06</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.57</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>9.89</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>63.72</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f t="shared" si="1"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1718,38 +1724,38 @@
       <c r="G17" s="2">
         <v>20.440000000000001</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>3</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>4.2300000000000004</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>3</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>3.5</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <v>1</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P17" s="2">
         <v>67.040000000000006</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="R17" s="2">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="R17" s="2">
+      <c r="S17" s="2">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1771,37 +1777,37 @@
       <c r="G18">
         <v>48.93</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>17</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>30</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2.36</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2.2200000000000002</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>6.64</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>55.48</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <f t="shared" si="0"/>
         <v>0.20999999999999996</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1823,37 +1829,37 @@
       <c r="G19">
         <v>47.38</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>18</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>19</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>4.01</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2.44</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>4</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>6.13</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>58.53</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <f t="shared" si="0"/>
         <v>1.87</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1875,38 +1881,38 @@
       <c r="G20" s="2">
         <v>61.06</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>5</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <v>4.0199999999999996</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>2.33</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>1</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <v>6.5</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P20" s="2">
         <v>49.07</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R20" s="2">
+      <c r="S20" s="2">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1928,38 +1934,38 @@
       <c r="G21" s="2">
         <v>51.11</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>4.3</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>6</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
       </c>
       <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
         <v>50</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="R21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R21" s="2" t="e">
+      <c r="S21" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1981,37 +1987,37 @@
       <c r="G22">
         <v>51.71</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>21</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>39</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>4.09</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2.52</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2.21</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>6.09</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>64.53</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <f t="shared" si="0"/>
         <v>1.2200000000000002</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f t="shared" si="1"/>
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2033,37 +2039,37 @@
       <c r="G23">
         <v>56.84</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>22</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>29</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>3.86</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2.77</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2.23</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>7.31</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>71</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f t="shared" si="0"/>
         <v>0.34000000000000008</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2085,37 +2091,37 @@
       <c r="G24">
         <v>54.03</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>23</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>53</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>4.2699999999999996</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>2.93</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2.57</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>7.15</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>41.81</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <f t="shared" si="0"/>
         <v>0.96999999999999975</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2137,37 +2143,37 @@
       <c r="G25">
         <v>35.78</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>24</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>11</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>3.95</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>2.56</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2.5</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>5.75</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>71.88</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f t="shared" si="1"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2189,37 +2195,37 @@
       <c r="G26">
         <v>32.22</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>25</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>24</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4.16</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>2.5</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>6.07</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>6.75</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>51.73</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <f t="shared" si="0"/>
         <v>4.1900000000000004</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2241,37 +2247,37 @@
       <c r="G27">
         <v>52.84</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>26</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>38</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>3.88</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>4.26</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>3</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>9.1</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>68.900000000000006</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="1"/>
         <v>0.17</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2293,38 +2299,38 @@
       <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="5"/>
+      <c r="J28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <v>4</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="2">
         <v>4.1500000000000004</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M28" s="2">
         <v>2.33</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
         <v>5</v>
       </c>
-      <c r="N28" s="2">
+      <c r="O28" s="2">
         <v>18</v>
       </c>
-      <c r="O28" s="2">
+      <c r="P28" s="2">
         <v>59.53</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="R28" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="R28" s="2" t="e">
+      <c r="S28" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2346,37 +2352,37 @@
       <c r="G29">
         <v>40.61</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>28</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>20</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>4.09</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>2.27</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2.25</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>3.67</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>52.77</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <f t="shared" si="0"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f t="shared" si="1"/>
         <v>0.41</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2398,38 +2404,38 @@
       <c r="G30" s="2">
         <v>92</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="5"/>
+      <c r="J30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>4</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <v>3.95</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <v>3</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <v>1.5</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30" s="2">
         <v>0</v>
       </c>
-      <c r="O30" s="2">
+      <c r="P30" s="2">
         <v>71.56</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="R30" s="2">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="R30" s="2" t="e">
+      <c r="S30" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2451,37 +2457,37 @@
       <c r="G31">
         <v>53.34</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>30</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>22</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>4.17</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>2.67</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>4.0599999999999996</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>5.4</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>64.680000000000007</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <f t="shared" si="0"/>
         <v>1.4899999999999998</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2503,37 +2509,37 @@
       <c r="G32">
         <v>45.84</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>31</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>19</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>4.12</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>2.67</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>2.75</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>5.88</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>68.94</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f t="shared" si="1"/>
         <v>0.19</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2555,38 +2561,38 @@
       <c r="G33" s="2">
         <v>51.11</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="5"/>
+      <c r="J33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>7</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <v>4.3</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <v>3.43</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="2">
         <v>2</v>
       </c>
-      <c r="N33" s="2">
+      <c r="O33" s="2">
         <v>6.6</v>
       </c>
-      <c r="O33" s="2">
+      <c r="P33" s="2">
         <v>87.14</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="R33" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R33" s="2" t="e">
+      <c r="S33" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2608,37 +2614,37 @@
       <c r="G34">
         <v>40.28</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>33</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>91</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>3.98</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>2.09</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>4.24</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>47.45</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>44.49</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <f t="shared" si="0"/>
         <v>0.62000000000000011</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2660,37 +2666,37 @@
       <c r="G35">
         <v>48.55</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>34</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>10</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>4.12</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>4</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>2.67</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>4.5</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>73.92</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <f t="shared" si="0"/>
         <v>0.53000000000000025</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2712,37 +2718,37 @@
       <c r="G36">
         <v>53</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>35</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>29</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>3.99</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>3.18</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>1.94</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>5.46</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>64.05</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <f t="shared" si="0"/>
         <v>0.29000000000000004</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2764,38 +2770,38 @@
       <c r="G37" s="2">
         <v>61.06</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="5"/>
+      <c r="J37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>6</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="2">
         <v>4.25</v>
       </c>
-      <c r="L37" s="2">
+      <c r="M37" s="2">
         <v>3.2</v>
       </c>
-      <c r="M37" s="2">
+      <c r="N37" s="2">
         <v>1</v>
       </c>
-      <c r="N37" s="2">
+      <c r="O37" s="2">
         <v>10</v>
       </c>
-      <c r="O37" s="2">
+      <c r="P37" s="2">
         <v>74.040000000000006</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="R37" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R37" s="2">
+      <c r="S37" s="2">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>37</v>
       </c>
@@ -2814,35 +2820,36 @@
       <c r="G38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6" t="s">
+      <c r="H38" s="6"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="L38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="M38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="N38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="O38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="P38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="P38" s="5"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="H39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -2850,15 +2857,16 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="H40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -2866,8 +2874,9 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>37</v>
       </c>
@@ -2886,19 +2895,20 @@
       <c r="G41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P41" s="6"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>45</v>
       </c>
@@ -2920,11 +2930,11 @@
       <c r="G42" s="5">
         <v>48.34</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="5"/>
+      <c r="I42" s="5">
         <f>ROUND((F42/E42),2)</f>
         <v>2.86</v>
       </c>
-      <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -2932,8 +2942,9 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>3.5</v>
       </c>
@@ -2955,11 +2966,11 @@
       <c r="G43" s="5">
         <v>58.97</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="5"/>
+      <c r="I43" s="5">
         <f>ROUND((F43/E43),2)</f>
         <v>3.57</v>
       </c>
-      <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -2967,15 +2978,16 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="H44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -2983,15 +2995,16 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="H45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -2999,15 +3012,16 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="H46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -3015,15 +3029,16 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="H47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -3031,15 +3046,16 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="H48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -3047,15 +3063,16 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="H49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -3063,15 +3080,16 @@
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="H50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -3079,15 +3097,16 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="H51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -3095,15 +3114,16 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="H52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -3111,6 +3131,7 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3122,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
+++ b/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
@@ -15,23 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="147">
   <si>
     <t>Genre</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Adventure</t>
-  </si>
-  <si>
     <t>Arcade</t>
   </si>
   <si>
-    <t>Board</t>
-  </si>
-  <si>
     <t>Books &amp; Reference</t>
   </si>
   <si>
@@ -44,18 +35,12 @@
     <t>Casual</t>
   </si>
   <si>
-    <t>Comics</t>
-  </si>
-  <si>
     <t>Communication</t>
   </si>
   <si>
     <t>Education</t>
   </si>
   <si>
-    <t>Educational</t>
-  </si>
-  <si>
     <t>Entertainment</t>
   </si>
   <si>
@@ -65,9 +50,6 @@
     <t>Health &amp; Fitness</t>
   </si>
   <si>
-    <t>Libraries &amp; Demo</t>
-  </si>
-  <si>
     <t>Lifestyle</t>
   </si>
   <si>
@@ -77,9 +59,6 @@
     <t>Medical</t>
   </si>
   <si>
-    <t>Music</t>
-  </si>
-  <si>
     <t>Music &amp; Audio</t>
   </si>
   <si>
@@ -98,9 +77,6 @@
     <t>Puzzle</t>
   </si>
   <si>
-    <t>Role Playing</t>
-  </si>
-  <si>
     <t>Shopping</t>
   </si>
   <si>
@@ -113,9 +89,6 @@
     <t>Sports</t>
   </si>
   <si>
-    <t>Strategy</t>
-  </si>
-  <si>
     <t>Tools</t>
   </si>
   <si>
@@ -125,9 +98,6 @@
     <t>Travel &amp; Local</t>
   </si>
   <si>
-    <t>Weather</t>
-  </si>
-  <si>
     <t>GenreCount</t>
   </si>
   <si>
@@ -149,9 +119,6 @@
     <t>Diff Opriv</t>
   </si>
   <si>
-    <t>DiffOpriv/Perm</t>
-  </si>
-  <si>
     <t>0-3</t>
   </si>
   <si>
@@ -483,13 +450,19 @@
   </si>
   <si>
     <t>OPrivRate</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Removed all counts for either group with a count of less than 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +478,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -515,7 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,14 +513,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -556,6 +533,17 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,2281 +845,1748 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.71</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F2" s="3">
+        <v>11.83</v>
+      </c>
+      <c r="G2" s="3">
+        <v>21.17</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="M2" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="O2" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="P2" s="3">
+        <v>60.12</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="S2" s="3">
+        <f>ABS(Q2-H2)</f>
+        <v>0.11999999999999988</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6.19</v>
+      </c>
+      <c r="G3" s="3">
+        <v>50.95</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44</v>
+      </c>
+      <c r="L3" s="3">
+        <v>4.33</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>5.38</v>
+      </c>
+      <c r="P3" s="3">
+        <v>57.06</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>8.02</v>
+      </c>
+      <c r="S3" s="3">
+        <f>ABS(Q3-H3)</f>
+        <v>7.1</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.44</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.51</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5.31</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50.18</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1.44</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="O4" s="3">
+        <v>12.88</v>
+      </c>
+      <c r="P4" s="3">
+        <v>50.22</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="S4" s="3">
+        <f>ABS(Q4-H4)</f>
+        <v>1.9800000000000002</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>58.16</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3">
+        <v>73.47</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="S5" s="3">
+        <f>ABS(Q5-H5)</f>
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7.36</v>
+      </c>
+      <c r="G6" s="3">
+        <v>46.37</v>
+      </c>
+      <c r="H6" s="3">
+        <v>412.36</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>28</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4.01</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3.29</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="O6" s="3">
+        <v>5.56</v>
+      </c>
+      <c r="P6" s="3">
+        <v>58.41</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="S6" s="3">
+        <f>ABS(Q6-H6)</f>
+        <v>411.58000000000004</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.67</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.47</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6.29</v>
+      </c>
+      <c r="G7" s="3">
+        <v>58.82</v>
+      </c>
+      <c r="H7" s="3">
+        <v>52.98</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3">
+        <v>44</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3.91</v>
+      </c>
+      <c r="O7" s="3">
+        <v>6.96</v>
+      </c>
+      <c r="P7" s="3">
+        <v>55.32</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>19.27</v>
+      </c>
+      <c r="S7" s="3">
+        <f>ABS(Q7-H7)</f>
+        <v>33.709999999999994</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.82</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6.24</v>
+      </c>
+      <c r="G8" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12.28</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>62</v>
+      </c>
+      <c r="L8" s="3">
+        <v>4.16</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2.71</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="O8" s="3">
+        <v>7.41</v>
+      </c>
+      <c r="P8" s="3">
+        <v>54.87</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="S8" s="3">
+        <f>ABS(Q8-H8)</f>
+        <v>8.379999999999999</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>99</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="G9" s="3">
+        <v>49.38</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3">
+        <v>64</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3.99</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="O9" s="3">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="P9" s="3">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>5.33</v>
+      </c>
+      <c r="S9" s="3">
+        <f>ABS(Q9-H9)</f>
+        <v>2.8900000000000006</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>48.64</v>
+      </c>
+      <c r="H10" s="3">
+        <v>13.71</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3">
+        <v>23</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="O10" s="3">
+        <v>7.78</v>
+      </c>
+      <c r="P10" s="3">
+        <v>55.24</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>3.16</v>
+      </c>
+      <c r="S10" s="3">
+        <f>ABS(Q10-H10)</f>
+        <v>10.55</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.64</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5.86</v>
+      </c>
+      <c r="G11" s="3">
+        <v>47.19</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>21</v>
+      </c>
+      <c r="L11" s="3">
+        <v>4.03</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2.48</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="O11" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="P11" s="3">
+        <v>63.72</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="S11" s="3">
+        <f>ABS(Q11-H11)</f>
+        <v>0.52</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5.74</v>
+      </c>
+      <c r="G12" s="3">
+        <v>48.93</v>
+      </c>
+      <c r="H12" s="3">
+        <v>13.92</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="3">
+        <v>30</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="O12" s="3">
+        <v>6.64</v>
+      </c>
+      <c r="P12" s="3">
+        <v>55.48</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>3.67</v>
+      </c>
+      <c r="S12" s="3">
+        <f>ABS(Q12-H12)</f>
+        <v>10.25</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6.47</v>
+      </c>
+      <c r="G13" s="3">
+        <v>47.38</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="3">
+        <v>19</v>
+      </c>
+      <c r="L13" s="3">
+        <v>4.01</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="O13" s="3">
+        <v>6.13</v>
+      </c>
+      <c r="P13" s="3">
+        <v>58.53</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="S13" s="3">
+        <f>ABS(Q13-H13)</f>
+        <v>0.7</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7.23</v>
+      </c>
+      <c r="G14" s="3">
+        <v>51.71</v>
+      </c>
+      <c r="H14" s="3">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="3">
+        <v>39</v>
+      </c>
+      <c r="L14" s="3">
+        <v>4.09</v>
+      </c>
+      <c r="M14" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="O14" s="3">
+        <v>6.09</v>
+      </c>
+      <c r="P14" s="3">
+        <v>64.53</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="S14" s="3">
+        <f>ABS(Q14-H14)</f>
+        <v>5.6600000000000019</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2.48</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7.14</v>
+      </c>
+      <c r="G15" s="3">
+        <v>56.84</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="3">
+        <v>29</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3.86</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2.48</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>7.31</v>
+      </c>
+      <c r="P15" s="3">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>2.74</v>
+      </c>
+      <c r="S15" s="3">
+        <f>ABS(Q15-H15)</f>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="G16" s="3">
+        <v>54.03</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="3">
+        <v>53</v>
+      </c>
+      <c r="L16" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="O16" s="3">
+        <v>7.15</v>
+      </c>
+      <c r="P16" s="3">
+        <v>41.81</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>58.97</v>
+      </c>
+      <c r="S16" s="3">
+        <f>ABS(Q16-H16)</f>
+        <v>52.019999999999996</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>11.33</v>
+      </c>
+      <c r="G17" s="3">
+        <v>35.78</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="3">
+        <v>11</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2.09</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1.82</v>
+      </c>
+      <c r="O17" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="P17" s="3">
+        <v>71.88</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S17" s="3">
+        <f>ABS(Q17-H17)</f>
+        <v>5.41</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G18" s="3">
+        <v>32.22</v>
+      </c>
+      <c r="H18" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="3">
+        <v>24</v>
+      </c>
+      <c r="L18" s="3">
+        <v>4.16</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3.79</v>
+      </c>
+      <c r="O18" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="P18" s="3">
+        <v>51.73</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>26.44</v>
+      </c>
+      <c r="S18" s="3">
+        <f>ABS(Q18-H18)</f>
+        <v>16.55</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2.44</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F19" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>52.84</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.06</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="3">
+        <v>38</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="M19" s="3">
+        <v>3.47</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="O19" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>54.71</v>
+      </c>
+      <c r="S19" s="3">
+        <f>ABS(Q19-H19)</f>
+        <v>51.65</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.94</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="F20" s="3">
+        <v>10.67</v>
+      </c>
+      <c r="G20" s="3">
+        <v>40.61</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="3">
+        <v>20</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="O20" s="3">
+        <v>3.67</v>
+      </c>
+      <c r="P20" s="3">
+        <v>52.77</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="S20" s="3">
+        <f>ABS(Q20-H20)</f>
+        <v>1.29</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="F21" s="3">
+        <v>8.86</v>
+      </c>
+      <c r="G21" s="3">
+        <v>53.34</v>
+      </c>
+      <c r="H21" s="3">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="3">
+        <v>22</v>
+      </c>
+      <c r="L21" s="3">
+        <v>4.17</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3.14</v>
+      </c>
+      <c r="O21" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="P21" s="3">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2.09</v>
+      </c>
+      <c r="S21" s="3">
+        <f>ABS(Q21-H21)</f>
+        <v>7.620000000000001</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>8.92</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45.84</v>
+      </c>
+      <c r="H22" s="3">
+        <v>26.58</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="3">
+        <v>19</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O22" s="3">
+        <v>5.88</v>
+      </c>
+      <c r="P22" s="3">
+        <v>68.94</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="S22" s="3">
+        <f>ABS(Q22-H22)</f>
+        <v>25.529999999999998</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3">
+        <v>76</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="F23" s="3">
+        <v>7.38</v>
+      </c>
+      <c r="G23" s="3">
+        <v>40.28</v>
+      </c>
+      <c r="H23" s="3">
+        <v>28.07</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="10">
+        <v>91</v>
+      </c>
+      <c r="L23" s="10">
+        <v>3.98</v>
+      </c>
+      <c r="M23" s="10">
+        <v>1.29</v>
+      </c>
+      <c r="N23" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="O23" s="10">
+        <v>47.45</v>
+      </c>
+      <c r="P23" s="10">
+        <v>44.49</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="S23" s="3">
+        <f>ABS(Q23-H23)</f>
+        <v>11.979999999999997</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2.61</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>48.54</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="10">
+        <v>10</v>
+      </c>
+      <c r="L24" s="10">
+        <v>4.12</v>
+      </c>
+      <c r="M24" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="N24" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="O24" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="P24" s="10">
+        <v>73.92</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>28.18</v>
+      </c>
+      <c r="S24" s="3">
+        <f>ABS(Q24-H24)</f>
+        <v>18.16</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>51.11</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2">
-        <v>3.98</v>
-      </c>
-      <c r="M2" s="2">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1.88</v>
-      </c>
-      <c r="O2" s="2">
-        <v>5.83</v>
-      </c>
-      <c r="P2" s="2">
-        <v>67.37</v>
-      </c>
-      <c r="R2" s="2">
-        <f>ABS(E2-N2)</f>
-        <v>1.88</v>
-      </c>
-      <c r="S2" s="2" t="e">
-        <f>ROUND(ABS((E2/F2)-(N2/O2)),2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>92</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>7</v>
-      </c>
-      <c r="L3" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="M3" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="O3" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="P3" s="2">
-        <v>75.62</v>
-      </c>
-      <c r="R3" s="2">
-        <f t="shared" ref="R3:R37" si="0">ABS(E3-N3)</f>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="S3" s="2" t="e">
-        <f t="shared" ref="S3:S37" si="1">ROUND(ABS((E3/F3)-(N3/O3)),2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="D4">
-        <v>3.8</v>
-      </c>
-      <c r="E4">
-        <v>1.33</v>
-      </c>
-      <c r="F4">
-        <v>11.83</v>
-      </c>
-      <c r="G4">
-        <v>21.17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>25</v>
-      </c>
-      <c r="L4">
-        <v>3.8</v>
-      </c>
-      <c r="M4">
-        <v>3.63</v>
-      </c>
-      <c r="N4">
-        <v>2.89</v>
-      </c>
-      <c r="O4">
-        <v>8.4</v>
-      </c>
-      <c r="P4">
-        <v>60.12</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>1.56</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="1"/>
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="C25" s="3">
+        <v>2.34</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.89</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6.21</v>
+      </c>
+      <c r="G25" s="3">
+        <v>53</v>
+      </c>
+      <c r="H25" s="3">
+        <v>15.55</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="10">
+        <v>29</v>
+      </c>
+      <c r="L25" s="10">
+        <v>3.99</v>
+      </c>
+      <c r="M25" s="10">
+        <v>2.41</v>
+      </c>
+      <c r="N25" s="10">
+        <v>1.21</v>
+      </c>
+      <c r="O25" s="10">
+        <v>5.46</v>
+      </c>
+      <c r="P25" s="10">
+        <v>64.05</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>1.22</v>
+      </c>
+      <c r="S25" s="3">
+        <f>ABS(Q25-H25)</f>
+        <v>14.33</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3">
+        <v>798</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2.78</v>
+      </c>
+      <c r="E30" s="3">
         <v>2.5</v>
       </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>64.739999999999995</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2">
-        <v>3</v>
-      </c>
-      <c r="L5" s="2">
-        <v>3.93</v>
-      </c>
-      <c r="M5" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="N5" s="2">
-        <v>2</v>
-      </c>
-      <c r="O5" s="2">
-        <v>5.67</v>
-      </c>
-      <c r="P5" s="2">
-        <v>81.040000000000006</v>
-      </c>
-      <c r="R5" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>2.57</v>
-      </c>
-      <c r="D6">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="E6">
-        <v>3.18</v>
-      </c>
-      <c r="F6">
-        <v>6.19</v>
-      </c>
-      <c r="G6">
-        <v>50.95</v>
-      </c>
-      <c r="J6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>44</v>
-      </c>
-      <c r="L6">
-        <v>4.33</v>
-      </c>
-      <c r="M6">
-        <v>2.38</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <v>5.38</v>
-      </c>
-      <c r="P6">
-        <v>57.06</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>0.18000000000000016</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="1"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>43</v>
-      </c>
-      <c r="C7">
-        <v>2.44</v>
-      </c>
-      <c r="D7">
-        <v>2.52</v>
-      </c>
-      <c r="E7">
-        <v>3.1</v>
-      </c>
-      <c r="F7">
-        <v>5.31</v>
-      </c>
-      <c r="G7">
-        <v>50.18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <v>18</v>
-      </c>
-      <c r="L7">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="M7">
-        <v>1.86</v>
-      </c>
-      <c r="N7">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="O7">
-        <v>12.88</v>
-      </c>
-      <c r="P7">
-        <v>50.22</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>1.4599999999999995</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="1"/>
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>2.57</v>
-      </c>
-      <c r="D8">
-        <v>5.13</v>
-      </c>
-      <c r="E8">
-        <v>2.5</v>
-      </c>
-      <c r="F8">
-        <v>9.6</v>
-      </c>
-      <c r="G8">
-        <v>58.16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M8">
-        <v>2.4</v>
-      </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <v>73.47</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="1"/>
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>2.59</v>
-      </c>
-      <c r="D9">
+      <c r="F30" s="3">
+        <v>7.14</v>
+      </c>
+      <c r="G30" s="3">
+        <v>48.34</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <f>ROUND((F30/E30),2)</f>
+        <v>2.86</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>861</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="D31" s="3">
         <v>2.85</v>
       </c>
-      <c r="E9">
-        <v>3.5</v>
-      </c>
-      <c r="F9">
-        <v>7.36</v>
-      </c>
-      <c r="G9">
-        <v>46.37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>28</v>
-      </c>
-      <c r="L9">
-        <v>4.01</v>
-      </c>
-      <c r="M9">
-        <v>3.54</v>
-      </c>
-      <c r="N9">
-        <v>2.5</v>
-      </c>
-      <c r="O9">
-        <v>5.56</v>
-      </c>
-      <c r="P9">
-        <v>58.41</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.42</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5.33</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5.33</v>
-      </c>
-      <c r="G10" s="2">
-        <v>50.89</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="2">
-        <v>3</v>
-      </c>
-      <c r="L10" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1.67</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="P10" s="2">
-        <v>51.11</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>2.67</v>
-      </c>
-      <c r="D11">
-        <v>3.75</v>
-      </c>
-      <c r="E11">
-        <v>5.2</v>
-      </c>
-      <c r="F11">
-        <v>6.29</v>
-      </c>
-      <c r="G11">
-        <v>58.82</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>44</v>
-      </c>
-      <c r="L11">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="M11">
-        <v>2.65</v>
-      </c>
-      <c r="N11">
-        <v>5.55</v>
-      </c>
-      <c r="O11">
-        <v>6.96</v>
-      </c>
-      <c r="P11">
-        <v>55.32</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
-        <v>0.34999999999999964</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="D12">
-        <v>2.68</v>
-      </c>
-      <c r="E12">
-        <v>1.92</v>
-      </c>
-      <c r="F12">
-        <v>6.24</v>
-      </c>
-      <c r="G12">
-        <v>48.89</v>
-      </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12">
-        <v>62</v>
-      </c>
-      <c r="L12">
-        <v>4.16</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12">
-        <v>2.04</v>
-      </c>
-      <c r="O12">
-        <v>7.41</v>
-      </c>
-      <c r="P12">
-        <v>54.87</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>0.12000000000000011</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D13" s="2">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2">
-        <v>92</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="2">
-        <v>4</v>
-      </c>
-      <c r="L13" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="M13" s="2">
-        <v>6</v>
-      </c>
-      <c r="O13" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="P13" s="2">
-        <v>48.56</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>99</v>
-      </c>
-      <c r="C14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D14">
-        <v>2.31</v>
-      </c>
-      <c r="E14">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="F14">
-        <v>6.95</v>
-      </c>
-      <c r="G14">
-        <v>49.38</v>
-      </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14">
-        <v>64</v>
-      </c>
-      <c r="L14">
-        <v>3.99</v>
-      </c>
-      <c r="M14">
-        <v>2.46</v>
-      </c>
-      <c r="N14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O14">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="P14">
-        <v>65.709999999999994</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>44</v>
-      </c>
-      <c r="C15">
-        <v>2.5</v>
-      </c>
-      <c r="D15">
-        <v>2.5</v>
-      </c>
-      <c r="E15">
-        <v>1.83</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>48.64</v>
-      </c>
-      <c r="J15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15">
-        <v>23</v>
-      </c>
-      <c r="L15">
-        <v>4.07</v>
-      </c>
-      <c r="M15">
-        <v>1.65</v>
-      </c>
-      <c r="N15">
-        <v>2.23</v>
-      </c>
-      <c r="O15">
-        <v>7.78</v>
-      </c>
-      <c r="P15">
-        <v>55.24</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="1"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>2.41</v>
-      </c>
-      <c r="D16">
-        <v>3.87</v>
-      </c>
-      <c r="E16">
-        <v>1.71</v>
-      </c>
-      <c r="F16">
-        <v>5.86</v>
-      </c>
-      <c r="G16">
-        <v>47.19</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16">
-        <v>21</v>
-      </c>
-      <c r="L16">
-        <v>4.03</v>
-      </c>
-      <c r="M16">
+      <c r="E31" s="3">
         <v>3.06</v>
       </c>
-      <c r="N16">
-        <v>1.57</v>
-      </c>
-      <c r="O16">
-        <v>9.89</v>
-      </c>
-      <c r="P16">
-        <v>63.72</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
-        <v>0.1399999999999999</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="1"/>
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2.27</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="G17" s="2">
-        <v>20.440000000000001</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="2">
-        <v>3</v>
-      </c>
-      <c r="L17" s="2">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="M17" s="2">
-        <v>3</v>
-      </c>
-      <c r="N17" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2">
-        <v>67.040000000000006</v>
-      </c>
-      <c r="R17" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="S17" s="2">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>2.52</v>
-      </c>
-      <c r="D18">
-        <v>2.09</v>
-      </c>
-      <c r="E18">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F18">
-        <v>5.74</v>
-      </c>
-      <c r="G18">
-        <v>48.93</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18">
-        <v>30</v>
-      </c>
-      <c r="L18">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M18">
-        <v>2.36</v>
-      </c>
-      <c r="N18">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="O18">
-        <v>6.64</v>
-      </c>
-      <c r="P18">
-        <v>55.48</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="0"/>
-        <v>0.20999999999999996</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="1"/>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>23</v>
-      </c>
-      <c r="C19">
-        <v>2.42</v>
-      </c>
-      <c r="D19">
-        <v>1.82</v>
-      </c>
-      <c r="E19">
-        <v>2.13</v>
-      </c>
-      <c r="F19">
-        <v>6.47</v>
-      </c>
-      <c r="G19">
-        <v>47.38</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19">
-        <v>19</v>
-      </c>
-      <c r="L19">
-        <v>4.01</v>
-      </c>
-      <c r="M19">
-        <v>2.44</v>
-      </c>
-      <c r="N19">
-        <v>4</v>
-      </c>
-      <c r="O19">
-        <v>6.13</v>
-      </c>
-      <c r="P19">
-        <v>58.53</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="0"/>
-        <v>1.87</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="1"/>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D20" s="2">
-        <v>4.67</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2">
-        <v>19</v>
-      </c>
-      <c r="G20" s="2">
-        <v>61.06</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="2">
-        <v>5</v>
-      </c>
-      <c r="L20" s="2">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="M20" s="2">
-        <v>2.33</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="P20" s="2">
-        <v>49.07</v>
-      </c>
-      <c r="R20" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="S20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>51.11</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="M21" s="2">
-        <v>6</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>50</v>
-      </c>
-      <c r="R21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>2.65</v>
-      </c>
-      <c r="D22">
-        <v>2.84</v>
-      </c>
-      <c r="E22">
-        <v>3.43</v>
-      </c>
-      <c r="F22">
-        <v>7.23</v>
-      </c>
-      <c r="G22">
-        <v>51.71</v>
-      </c>
-      <c r="J22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22">
-        <v>39</v>
-      </c>
-      <c r="L22">
-        <v>4.09</v>
-      </c>
-      <c r="M22">
-        <v>2.52</v>
-      </c>
-      <c r="N22">
-        <v>2.21</v>
-      </c>
-      <c r="O22">
-        <v>6.09</v>
-      </c>
-      <c r="P22">
-        <v>64.53</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="0"/>
-        <v>1.2200000000000002</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="1"/>
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>50</v>
-      </c>
-      <c r="C23">
-        <v>2.48</v>
-      </c>
-      <c r="D23">
-        <v>2.21</v>
-      </c>
-      <c r="E23">
-        <v>1.89</v>
-      </c>
-      <c r="F23">
-        <v>7.14</v>
-      </c>
-      <c r="G23">
-        <v>56.84</v>
-      </c>
-      <c r="J23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23">
-        <v>29</v>
-      </c>
-      <c r="L23">
-        <v>3.86</v>
-      </c>
-      <c r="M23">
-        <v>2.77</v>
-      </c>
-      <c r="N23">
-        <v>2.23</v>
-      </c>
-      <c r="O23">
-        <v>7.31</v>
-      </c>
-      <c r="P23">
-        <v>71</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="0"/>
-        <v>0.34000000000000008</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="1"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>2.63</v>
-      </c>
-      <c r="D24">
-        <v>1.5</v>
-      </c>
-      <c r="E24">
-        <v>1.6</v>
-      </c>
-      <c r="F24">
-        <v>4.75</v>
-      </c>
-      <c r="G24">
-        <v>54.03</v>
-      </c>
-      <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24">
-        <v>53</v>
-      </c>
-      <c r="L24">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="M24">
-        <v>2.93</v>
-      </c>
-      <c r="N24">
-        <v>2.57</v>
-      </c>
-      <c r="O24">
-        <v>7.15</v>
-      </c>
-      <c r="P24">
-        <v>41.81</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="0"/>
-        <v>0.96999999999999975</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>2.72</v>
-      </c>
-      <c r="D25">
-        <v>1.57</v>
-      </c>
-      <c r="E25">
-        <v>1.71</v>
-      </c>
-      <c r="F25">
-        <v>11.33</v>
-      </c>
-      <c r="G25">
-        <v>35.78</v>
-      </c>
-      <c r="J25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25">
-        <v>11</v>
-      </c>
-      <c r="L25">
-        <v>3.95</v>
-      </c>
-      <c r="M25">
-        <v>2.56</v>
-      </c>
-      <c r="N25">
-        <v>2.5</v>
-      </c>
-      <c r="O25">
-        <v>5.75</v>
-      </c>
-      <c r="P25">
-        <v>71.88</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="0"/>
-        <v>0.79</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="1"/>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>2.56</v>
-      </c>
-      <c r="D26">
-        <v>2.67</v>
-      </c>
-      <c r="E26">
-        <v>1.88</v>
-      </c>
-      <c r="F26">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G26">
-        <v>32.22</v>
-      </c>
-      <c r="J26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26">
-        <v>24</v>
-      </c>
-      <c r="L26">
-        <v>4.16</v>
-      </c>
-      <c r="M26">
-        <v>2.5</v>
-      </c>
-      <c r="N26">
-        <v>6.07</v>
-      </c>
-      <c r="O26">
-        <v>6.75</v>
-      </c>
-      <c r="P26">
-        <v>51.73</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="0"/>
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="1"/>
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>50</v>
-      </c>
-      <c r="C27">
-        <v>2.44</v>
-      </c>
-      <c r="D27">
-        <v>3.12</v>
-      </c>
-      <c r="E27">
-        <v>1.2</v>
-      </c>
-      <c r="F27">
-        <v>7.3</v>
-      </c>
-      <c r="G27">
-        <v>52.84</v>
-      </c>
-      <c r="J27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27">
-        <v>38</v>
-      </c>
-      <c r="L27">
-        <v>3.88</v>
-      </c>
-      <c r="M27">
-        <v>4.26</v>
-      </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
-      <c r="O27">
-        <v>9.1</v>
-      </c>
-      <c r="P27">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="1"/>
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="D28" s="2">
-        <v>4</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="2">
-        <v>4</v>
-      </c>
-      <c r="L28" s="2">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="M28" s="2">
-        <v>2.33</v>
-      </c>
-      <c r="N28" s="2">
-        <v>5</v>
-      </c>
-      <c r="O28" s="2">
-        <v>18</v>
-      </c>
-      <c r="P28" s="2">
-        <v>59.53</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="S28" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>16</v>
-      </c>
-      <c r="C29">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="D29">
-        <v>3.88</v>
-      </c>
-      <c r="E29">
-        <v>2.17</v>
-      </c>
-      <c r="F29">
-        <v>10.67</v>
-      </c>
-      <c r="G29">
-        <v>40.61</v>
-      </c>
-      <c r="J29" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29">
-        <v>20</v>
-      </c>
-      <c r="L29">
-        <v>4.09</v>
-      </c>
-      <c r="M29">
-        <v>2.27</v>
-      </c>
-      <c r="N29">
-        <v>2.25</v>
-      </c>
-      <c r="O29">
-        <v>3.67</v>
-      </c>
-      <c r="P29">
-        <v>52.77</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="1"/>
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D30" s="2">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>92</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="2">
-        <v>4</v>
-      </c>
-      <c r="L30" s="2">
-        <v>3.95</v>
-      </c>
-      <c r="M30" s="2">
-        <v>3</v>
-      </c>
-      <c r="N30" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>71.56</v>
-      </c>
-      <c r="R30" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="S30" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>17</v>
-      </c>
-      <c r="C31">
-        <v>2.56</v>
-      </c>
-      <c r="D31">
-        <v>2.89</v>
-      </c>
-      <c r="E31">
-        <v>2.57</v>
-      </c>
-      <c r="F31">
-        <v>8.86</v>
-      </c>
-      <c r="G31">
-        <v>53.34</v>
-      </c>
-      <c r="J31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31">
-        <v>22</v>
-      </c>
-      <c r="L31">
-        <v>4.17</v>
-      </c>
-      <c r="M31">
-        <v>2.67</v>
-      </c>
-      <c r="N31">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="O31">
-        <v>5.4</v>
-      </c>
-      <c r="P31">
-        <v>64.680000000000007</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="0"/>
-        <v>1.4899999999999998</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="1"/>
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>23</v>
-      </c>
-      <c r="C32">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="D32">
-        <v>3.21</v>
-      </c>
-      <c r="E32">
-        <v>2.5</v>
-      </c>
-      <c r="F32">
-        <v>8.92</v>
-      </c>
-      <c r="G32">
-        <v>45.84</v>
-      </c>
-      <c r="J32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32">
-        <v>19</v>
-      </c>
-      <c r="L32">
-        <v>4.12</v>
-      </c>
-      <c r="M32">
-        <v>2.67</v>
-      </c>
-      <c r="N32">
-        <v>2.75</v>
-      </c>
-      <c r="O32">
-        <v>5.88</v>
-      </c>
-      <c r="P32">
-        <v>68.94</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="1"/>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>51.11</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" s="2">
-        <v>7</v>
-      </c>
-      <c r="L33" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="M33" s="2">
-        <v>3.43</v>
-      </c>
-      <c r="N33" s="2">
-        <v>2</v>
-      </c>
-      <c r="O33" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="P33" s="2">
-        <v>87.14</v>
-      </c>
-      <c r="R33" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S33" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>76</v>
-      </c>
-      <c r="C34">
-        <v>2.5</v>
-      </c>
-      <c r="D34">
-        <v>2.85</v>
-      </c>
-      <c r="E34">
-        <v>3.62</v>
-      </c>
-      <c r="F34">
-        <v>7.38</v>
-      </c>
-      <c r="G34">
-        <v>40.28</v>
-      </c>
-      <c r="J34" t="s">
-        <v>33</v>
-      </c>
-      <c r="K34">
-        <v>91</v>
-      </c>
-      <c r="L34">
-        <v>3.98</v>
-      </c>
-      <c r="M34">
-        <v>2.09</v>
-      </c>
-      <c r="N34">
-        <v>4.24</v>
-      </c>
-      <c r="O34">
-        <v>47.45</v>
-      </c>
-      <c r="P34">
-        <v>44.49</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="0"/>
-        <v>0.62000000000000011</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>23</v>
-      </c>
-      <c r="C35">
-        <v>2.61</v>
-      </c>
-      <c r="D35">
-        <v>1.57</v>
-      </c>
-      <c r="E35">
-        <v>3.2</v>
-      </c>
-      <c r="F35">
-        <v>3.5</v>
-      </c>
-      <c r="G35">
-        <v>48.55</v>
-      </c>
-      <c r="J35" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35">
-        <v>10</v>
-      </c>
-      <c r="L35">
-        <v>4.12</v>
-      </c>
-      <c r="M35">
-        <v>4</v>
-      </c>
-      <c r="N35">
-        <v>2.67</v>
-      </c>
-      <c r="O35">
-        <v>4.5</v>
-      </c>
-      <c r="P35">
-        <v>73.92</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="0"/>
-        <v>0.53000000000000025</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="1"/>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>37</v>
-      </c>
-      <c r="C36">
-        <v>2.34</v>
-      </c>
-      <c r="D36">
-        <v>3.18</v>
-      </c>
-      <c r="E36">
-        <v>2.23</v>
-      </c>
-      <c r="F36">
-        <v>6.21</v>
-      </c>
-      <c r="G36">
-        <v>53</v>
-      </c>
-      <c r="J36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36">
-        <v>29</v>
-      </c>
-      <c r="L36">
-        <v>3.99</v>
-      </c>
-      <c r="M36">
-        <v>3.18</v>
-      </c>
-      <c r="N36">
-        <v>1.94</v>
-      </c>
-      <c r="O36">
-        <v>5.46</v>
-      </c>
-      <c r="P36">
-        <v>64.05</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="0"/>
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2.58</v>
-      </c>
-      <c r="D37" s="2">
-        <v>4</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>8</v>
-      </c>
-      <c r="G37" s="2">
-        <v>61.06</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" s="2">
-        <v>6</v>
-      </c>
-      <c r="L37" s="2">
-        <v>4.25</v>
-      </c>
-      <c r="M37" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="N37" s="2">
-        <v>1</v>
-      </c>
-      <c r="O37" s="2">
-        <v>10</v>
-      </c>
-      <c r="P37" s="2">
-        <v>74.040000000000006</v>
-      </c>
-      <c r="R37" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q38" s="5"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="5"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="5">
-        <v>798</v>
-      </c>
-      <c r="C42" s="5">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="D42" s="5">
-        <v>2.78</v>
-      </c>
-      <c r="E42" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F42" s="5">
-        <v>7.14</v>
-      </c>
-      <c r="G42" s="5">
-        <v>48.34</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5">
-        <f>ROUND((F42/E42),2)</f>
-        <v>2.86</v>
-      </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="B43" s="5">
-        <v>861</v>
-      </c>
-      <c r="C43" s="5">
-        <v>4.07</v>
-      </c>
-      <c r="D43" s="5">
-        <v>2.85</v>
-      </c>
-      <c r="E43" s="5">
-        <v>3.06</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="F31" s="3">
         <v>10.92</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G31" s="3">
         <v>58.97</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5">
-        <f>ROUND((F43/E43),2)</f>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <f>ROUND((F31/E31),2)</f>
         <v>3.57</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3155,102 +2610,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>42</v>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>42</v>
@@ -3271,10 +2726,10 @@
         <v>51.11</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>77</v>
@@ -3297,10 +2752,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>73</v>
@@ -3321,10 +2776,10 @@
         <v>51.25</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L5">
         <v>47</v>
@@ -3347,10 +2802,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>67</v>
@@ -3371,10 +2826,10 @@
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L6">
         <v>104</v>
@@ -3397,10 +2852,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>58</v>
@@ -3421,10 +2876,10 @@
         <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>54</v>
@@ -3447,10 +2902,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>96</v>
@@ -3471,10 +2926,10 @@
         <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L8">
         <v>55</v>
@@ -3497,10 +2952,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>103</v>
@@ -3521,10 +2976,10 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>94</v>
@@ -3547,10 +3002,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>75</v>
@@ -3571,10 +3026,10 @@
         <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>118</v>
@@ -3597,10 +3052,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>83</v>
@@ -3621,10 +3076,10 @@
         <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>118</v>
@@ -3647,10 +3102,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>134</v>
@@ -3671,10 +3126,10 @@
         <v>51.11</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>49</v>
@@ -3697,10 +3152,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>67</v>
@@ -3721,10 +3176,10 @@
         <v>51.11</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L13">
         <v>76</v>
@@ -3747,10 +3202,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>205</v>
@@ -3771,10 +3226,10 @@
         <v>52.63</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <v>63</v>
@@ -3797,10 +3252,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>70</v>
@@ -3821,10 +3276,10 @@
         <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L15">
         <v>101</v>
@@ -3847,10 +3302,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>70</v>
@@ -3871,10 +3326,10 @@
         <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L16">
         <v>202</v>
@@ -3897,10 +3352,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>70</v>
@@ -3921,10 +3376,10 @@
         <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L17">
         <v>74</v>
@@ -3947,10 +3402,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>27</v>
@@ -3971,10 +3426,10 @@
         <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>222</v>
@@ -3997,10 +3452,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>109</v>
@@ -4021,10 +3476,10 @@
         <v>51.11</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>156</v>
@@ -4047,10 +3502,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>86</v>
@@ -4071,10 +3526,10 @@
         <v>51.11</v>
       </c>
       <c r="J20" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <v>156</v>
@@ -4097,10 +3552,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>58</v>
@@ -4121,10 +3576,10 @@
         <v>50</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L21">
         <v>82</v>
@@ -4147,10 +3602,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>147</v>
@@ -4171,10 +3626,10 @@
         <v>50</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L22">
         <v>47</v>
@@ -4197,10 +3652,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>239</v>
@@ -4221,10 +3676,10 @@
         <v>50</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>1639</v>
@@ -4247,10 +3702,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>90</v>
@@ -4271,10 +3726,10 @@
         <v>50</v>
       </c>
       <c r="J24" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="L24">
         <v>195</v>
@@ -4297,10 +3752,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>245</v>
@@ -4321,10 +3776,10 @@
         <v>50</v>
       </c>
       <c r="J25" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L25">
         <v>51</v>
@@ -4347,10 +3802,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>97</v>
@@ -4371,10 +3826,10 @@
         <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L26">
         <v>468</v>
@@ -4397,10 +3852,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>67</v>
@@ -4421,10 +3876,10 @@
         <v>50</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="K27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <v>113</v>
@@ -4447,10 +3902,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>68</v>
@@ -4471,10 +3926,10 @@
         <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L28">
         <v>115</v>
@@ -4497,10 +3952,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>146</v>
@@ -4521,10 +3976,10 @@
         <v>50</v>
       </c>
       <c r="J29" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="K29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <v>118</v>
@@ -4547,10 +4002,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>113</v>
@@ -4571,10 +4026,10 @@
         <v>50</v>
       </c>
       <c r="J30" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L30">
         <v>124</v>
@@ -4597,10 +4052,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>193</v>
@@ -4621,10 +4076,10 @@
         <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>125</v>
@@ -4647,10 +4102,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>79</v>
@@ -4671,10 +4126,10 @@
         <v>50</v>
       </c>
       <c r="J32" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="K32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>321</v>
@@ -4697,10 +4152,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>81</v>
@@ -4721,10 +4176,10 @@
         <v>51.11</v>
       </c>
       <c r="J33" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="K33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L33">
         <v>270</v>
@@ -4747,10 +4202,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C34">
         <v>751</v>
@@ -4771,10 +4226,10 @@
         <v>50</v>
       </c>
       <c r="J34" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K34" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L34">
         <v>68</v>
@@ -4797,10 +4252,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>84</v>
@@ -4821,10 +4276,10 @@
         <v>51.11</v>
       </c>
       <c r="J35" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="K35" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L35">
         <v>68</v>
@@ -4847,10 +4302,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C36">
         <v>89</v>
@@ -4871,10 +4326,10 @@
         <v>51.11</v>
       </c>
       <c r="J36" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K36" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L36">
         <v>138</v>
@@ -4897,10 +4352,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>93</v>
@@ -4921,10 +4376,10 @@
         <v>51.11</v>
       </c>
       <c r="J37" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K37" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L37">
         <v>277</v>
@@ -4947,10 +4402,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>93</v>
@@ -4971,10 +4426,10 @@
         <v>51.11</v>
       </c>
       <c r="J38" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L38">
         <v>70</v>
@@ -4997,10 +4452,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>196</v>
@@ -5021,10 +4476,10 @@
         <v>50</v>
       </c>
       <c r="J39" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="K39" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L39">
         <v>70</v>
@@ -5047,10 +4502,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>109</v>
@@ -5071,10 +4526,10 @@
         <v>51.11</v>
       </c>
       <c r="J40" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L40">
         <v>71</v>
@@ -5097,10 +4552,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>164</v>
@@ -5121,10 +4576,10 @@
         <v>51.11</v>
       </c>
       <c r="J41" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L41">
         <v>361</v>
@@ -5147,10 +4602,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C42">
         <v>220</v>
@@ -5171,10 +4626,10 @@
         <v>50</v>
       </c>
       <c r="J42" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L42">
         <v>73</v>
@@ -5197,10 +4652,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <v>111</v>
@@ -5221,10 +4676,10 @@
         <v>51.11</v>
       </c>
       <c r="J43" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="K43" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L43">
         <v>305</v>
@@ -5247,10 +4702,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <v>353</v>
@@ -5271,10 +4726,10 @@
         <v>50</v>
       </c>
       <c r="J44" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L44">
         <v>699</v>
@@ -5297,10 +4752,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C45">
         <v>59</v>
@@ -5321,10 +4776,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="K45" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L45">
         <v>311</v>
@@ -5347,10 +4802,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C46">
         <v>599</v>
@@ -5371,10 +4826,10 @@
         <v>53</v>
       </c>
       <c r="J46" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="K46" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L46">
         <v>78</v>
@@ -5397,10 +4852,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C47">
         <v>186</v>
@@ -5421,10 +4876,10 @@
         <v>50</v>
       </c>
       <c r="J47" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K47" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L47">
         <v>321</v>
@@ -5447,10 +4902,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48">
         <v>62</v>
@@ -5471,10 +4926,10 @@
         <v>51.11</v>
       </c>
       <c r="J48" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K48" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L48">
         <v>886</v>
@@ -5497,10 +4952,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>63</v>
@@ -5521,10 +4976,10 @@
         <v>51.11</v>
       </c>
       <c r="J49" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K49" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L49">
         <v>82</v>
@@ -5547,10 +5002,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>130</v>
@@ -5571,10 +5026,10 @@
         <v>51.11</v>
       </c>
       <c r="J50" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K50" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L50">
         <v>412</v>
@@ -5597,10 +5052,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C51">
         <v>66</v>
@@ -5621,10 +5076,10 @@
         <v>51.11</v>
       </c>
       <c r="J51" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="K51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L51">
         <v>171</v>
@@ -5647,10 +5102,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>138</v>
@@ -5671,10 +5126,10 @@
         <v>51.11</v>
       </c>
       <c r="J52" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K52" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L52">
         <v>86</v>
@@ -5697,10 +5152,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>71</v>
@@ -5721,10 +5176,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K53" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L53">
         <v>88</v>

--- a/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
+++ b/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="280" windowWidth="22820" windowHeight="15420"/>
+    <workbookView xWindow="640" yWindow="100" windowWidth="25620" windowHeight="15400"/>
   </bookViews>
   <sheets>
     <sheet name="GenreGrouping" sheetId="2" r:id="rId1"/>
     <sheet name="TopOffendingApps" sheetId="1" r:id="rId2"/>
     <sheet name="foo" sheetId="3" r:id="rId3"/>
     <sheet name="foo 1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="63">
   <si>
     <t>Genre</t>
   </si>
@@ -126,9 +127,6 @@
     <t>0-3</t>
   </si>
   <si>
-    <t>OprivRate</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -151,12 +149,6 @@
   </si>
   <si>
     <t>Racing</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>Removed all counts for either group with a count of less than 5</t>
   </si>
   <si>
     <t>Opriv_Java_Ratio</t>
@@ -215,12 +207,18 @@
   <si>
     <t>Java</t>
   </si>
+  <si>
+    <t>Overpriv_Perm_Ratio</t>
+  </si>
+  <si>
+    <t>Jlint_LOC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,14 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -256,14 +246,6 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -286,38 +268,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -337,11 +329,9 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -356,6 +346,11 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -370,6 +365,11 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -669,92 +669,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="22" max="22" width="8.83203125" style="3"/>
+    <col min="23" max="23" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="10" t="s">
+      <c r="H1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="O1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="Q1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="R1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="S1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="T1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -780,58 +774,49 @@
         <v>1.55</v>
       </c>
       <c r="I2">
+        <v>0.51</v>
+      </c>
+      <c r="J2">
         <v>0.2</v>
       </c>
-      <c r="J2">
-        <v>268.29000000000002</v>
-      </c>
       <c r="K2">
-        <v>31338</v>
-      </c>
-      <c r="L2">
         <v>88</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>25</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>3.48</v>
       </c>
       <c r="Q2">
-        <v>3.48</v>
+        <v>1.04</v>
       </c>
       <c r="R2">
-        <v>1.04</v>
+        <v>6.9</v>
       </c>
       <c r="S2">
-        <v>6.9</v>
+        <v>60.12</v>
       </c>
       <c r="T2">
-        <v>60.12</v>
+        <v>1.67</v>
       </c>
       <c r="U2">
-        <v>1.67</v>
-      </c>
-      <c r="V2" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V2">
         <v>0.16</v>
       </c>
-      <c r="W2">
-        <v>1549.8</v>
-      </c>
-      <c r="X2">
-        <v>169364.36</v>
-      </c>
-      <c r="Y2">
-        <v>468.32</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="W2" s="3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -857,58 +842,49 @@
         <v>0.92</v>
       </c>
       <c r="I3">
+        <v>1.03</v>
+      </c>
+      <c r="J3">
         <v>0.08</v>
       </c>
-      <c r="J3">
-        <v>813.63</v>
-      </c>
       <c r="K3">
-        <v>79113.429999999993</v>
-      </c>
-      <c r="L3">
-        <v>226.97</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>2</v>
+        <v>227</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>44</v>
       </c>
       <c r="O3">
-        <v>44</v>
+        <v>4.33</v>
       </c>
       <c r="P3">
-        <v>4.33</v>
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R3">
-        <v>1.5</v>
+        <v>6.08</v>
       </c>
       <c r="S3">
-        <v>6.08</v>
+        <v>57.06</v>
       </c>
       <c r="T3">
-        <v>57.06</v>
+        <v>8.02</v>
       </c>
       <c r="U3">
-        <v>8.02</v>
-      </c>
-      <c r="V3" s="3">
-        <v>0.97</v>
-      </c>
-      <c r="W3">
-        <v>797.61</v>
-      </c>
-      <c r="X3">
-        <v>88840.02</v>
-      </c>
-      <c r="Y3">
-        <v>281.43</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>1.98</v>
+      </c>
+      <c r="V3">
+        <v>0.98</v>
+      </c>
+      <c r="W3" s="3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -934,58 +910,49 @@
         <v>3.74</v>
       </c>
       <c r="I4">
+        <v>1.29</v>
+      </c>
+      <c r="J4">
         <v>0.35</v>
       </c>
-      <c r="J4">
-        <v>793.33</v>
-      </c>
       <c r="K4">
-        <v>83278.47</v>
-      </c>
-      <c r="L4">
-        <v>219.93</v>
-      </c>
-      <c r="N4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="N4">
+        <v>18</v>
+      </c>
       <c r="O4">
-        <v>18</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="P4">
-        <v>4.0199999999999996</v>
+        <v>1.44</v>
       </c>
       <c r="Q4">
-        <v>1.44</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="R4">
-        <v>2.2799999999999998</v>
+        <v>8.18</v>
       </c>
       <c r="S4">
-        <v>8.18</v>
+        <v>50.22</v>
       </c>
       <c r="T4">
-        <v>50.22</v>
+        <v>1.76</v>
       </c>
       <c r="U4">
-        <v>1.76</v>
-      </c>
-      <c r="V4" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="V4">
         <v>0.17</v>
       </c>
-      <c r="W4">
-        <v>1412.83</v>
-      </c>
-      <c r="X4">
-        <v>161782.32999999999</v>
-      </c>
-      <c r="Y4">
-        <v>428.28</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="W4" s="3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1011,58 +978,49 @@
         <v>0.59</v>
       </c>
       <c r="I5">
+        <v>0.82</v>
+      </c>
+      <c r="J5">
         <v>0.04</v>
       </c>
-      <c r="J5">
-        <v>1239.3</v>
-      </c>
       <c r="K5">
-        <v>148000</v>
-      </c>
-      <c r="L5">
-        <v>384.5</v>
-      </c>
-      <c r="N5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
       <c r="O5">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P5">
-        <v>4.0999999999999996</v>
+        <v>2.4</v>
       </c>
       <c r="Q5">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="R5">
-        <v>1.6</v>
+        <v>11</v>
       </c>
       <c r="S5">
-        <v>11</v>
+        <v>73.47</v>
       </c>
       <c r="T5">
-        <v>73.47</v>
+        <v>0.8</v>
       </c>
       <c r="U5">
-        <v>0.8</v>
-      </c>
-      <c r="V5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="V5">
         <v>0.08</v>
       </c>
-      <c r="W5">
-        <v>1609.4</v>
-      </c>
-      <c r="X5">
-        <v>143195</v>
-      </c>
-      <c r="Y5">
-        <v>434.8</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="W5" s="3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1088,58 +1046,49 @@
         <v>412.36</v>
       </c>
       <c r="I6">
+        <v>1.03</v>
+      </c>
+      <c r="J6">
         <v>5.42</v>
       </c>
-      <c r="J6">
-        <v>254.81</v>
-      </c>
       <c r="K6">
-        <v>25264.37</v>
-      </c>
-      <c r="L6">
-        <v>74.19</v>
-      </c>
-      <c r="N6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N6">
+        <v>28</v>
+      </c>
       <c r="O6">
-        <v>28</v>
+        <v>4.01</v>
       </c>
       <c r="P6">
-        <v>4.01</v>
+        <v>3.29</v>
       </c>
       <c r="Q6">
-        <v>3.29</v>
+        <v>0.71</v>
       </c>
       <c r="R6">
-        <v>0.71</v>
+        <v>7.93</v>
       </c>
       <c r="S6">
-        <v>7.93</v>
+        <v>58.41</v>
       </c>
       <c r="T6">
-        <v>58.41</v>
+        <v>0.78</v>
       </c>
       <c r="U6">
         <v>0.78</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W6">
-        <v>1418.79</v>
-      </c>
-      <c r="X6">
-        <v>149071.85999999999</v>
-      </c>
-      <c r="Y6">
-        <v>410.61</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="W6" s="3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1165,58 +1114,49 @@
         <v>52.98</v>
       </c>
       <c r="I7">
+        <v>2.56</v>
+      </c>
+      <c r="J7">
         <v>3.49</v>
       </c>
-      <c r="J7">
-        <v>770.87</v>
-      </c>
       <c r="K7">
-        <v>95251.13</v>
-      </c>
-      <c r="L7">
-        <v>229.93</v>
-      </c>
-      <c r="N7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="N7">
+        <v>44</v>
+      </c>
       <c r="O7">
-        <v>44</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="P7">
-        <v>4.1100000000000003</v>
+        <v>1.02</v>
       </c>
       <c r="Q7">
-        <v>1.02</v>
+        <v>3.91</v>
       </c>
       <c r="R7">
-        <v>3.91</v>
+        <v>13.48</v>
       </c>
       <c r="S7">
-        <v>13.48</v>
+        <v>55.32</v>
       </c>
       <c r="T7">
-        <v>55.32</v>
+        <v>19.27</v>
       </c>
       <c r="U7">
-        <v>19.27</v>
-      </c>
-      <c r="V7" s="3">
+        <v>2.37</v>
+      </c>
+      <c r="V7">
         <v>3.81</v>
       </c>
-      <c r="W7">
-        <v>1137.27</v>
-      </c>
-      <c r="X7">
-        <v>120903.7</v>
-      </c>
-      <c r="Y7">
-        <v>455.82</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="W7" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1242,58 +1182,49 @@
         <v>12.28</v>
       </c>
       <c r="I8">
+        <v>1.95</v>
+      </c>
+      <c r="J8">
         <v>1.58</v>
       </c>
-      <c r="J8">
-        <v>513.5</v>
-      </c>
       <c r="K8">
-        <v>57890.82</v>
-      </c>
-      <c r="L8">
-        <v>147.72</v>
-      </c>
-      <c r="N8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="N8">
+        <v>62</v>
+      </c>
       <c r="O8">
-        <v>62</v>
+        <v>4.16</v>
       </c>
       <c r="P8">
-        <v>4.16</v>
+        <v>2.71</v>
       </c>
       <c r="Q8">
-        <v>2.71</v>
+        <v>0.76</v>
       </c>
       <c r="R8">
-        <v>0.76</v>
+        <v>6.02</v>
       </c>
       <c r="S8">
-        <v>6.02</v>
+        <v>54.87</v>
       </c>
       <c r="T8">
-        <v>54.87</v>
+        <v>3.9</v>
       </c>
       <c r="U8">
-        <v>3.9</v>
-      </c>
-      <c r="V8" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="V8">
         <v>0.47</v>
       </c>
-      <c r="W8">
-        <v>1135.98</v>
-      </c>
-      <c r="X8">
-        <v>124022.79</v>
-      </c>
-      <c r="Y8">
-        <v>314.68</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="W8" s="3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1319,58 +1250,49 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="I9">
+        <v>1.07</v>
+      </c>
+      <c r="J9">
         <v>0.96</v>
       </c>
-      <c r="J9">
-        <v>323.07</v>
-      </c>
       <c r="K9">
-        <v>38289.03</v>
-      </c>
-      <c r="L9">
-        <v>110.37</v>
-      </c>
-      <c r="N9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N9">
+        <v>64</v>
+      </c>
       <c r="O9">
-        <v>64</v>
+        <v>3.99</v>
       </c>
       <c r="P9">
-        <v>3.99</v>
+        <v>1.92</v>
       </c>
       <c r="Q9">
-        <v>1.92</v>
+        <v>1.19</v>
       </c>
       <c r="R9">
-        <v>1.19</v>
+        <v>6.44</v>
       </c>
       <c r="S9">
-        <v>6.44</v>
+        <v>65.709999999999994</v>
       </c>
       <c r="T9">
-        <v>65.709999999999994</v>
+        <v>5.33</v>
       </c>
       <c r="U9">
-        <v>5.33</v>
-      </c>
-      <c r="V9" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="V9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="W9">
-        <v>1460.72</v>
-      </c>
-      <c r="X9">
-        <v>165372.81</v>
-      </c>
-      <c r="Y9">
-        <v>428.27</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="W9" s="3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1396,58 +1318,49 @@
         <v>13.71</v>
       </c>
       <c r="I10">
+        <v>1.32</v>
+      </c>
+      <c r="J10">
         <v>3.53</v>
       </c>
-      <c r="J10">
-        <v>581.04999999999995</v>
-      </c>
       <c r="K10">
-        <v>59821.27</v>
-      </c>
-      <c r="L10">
-        <v>185.02</v>
-      </c>
-      <c r="N10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="N10">
+        <v>23</v>
+      </c>
       <c r="O10">
-        <v>23</v>
+        <v>4.07</v>
       </c>
       <c r="P10">
-        <v>4.07</v>
+        <v>1.22</v>
       </c>
       <c r="Q10">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="R10">
-        <v>1.26</v>
+        <v>5.91</v>
       </c>
       <c r="S10">
-        <v>5.91</v>
+        <v>55.24</v>
       </c>
       <c r="T10">
-        <v>55.24</v>
+        <v>3.16</v>
       </c>
       <c r="U10">
-        <v>3.16</v>
-      </c>
-      <c r="V10" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="V10">
         <v>0.4</v>
       </c>
-      <c r="W10">
-        <v>1032.78</v>
-      </c>
-      <c r="X10">
-        <v>109529.78</v>
-      </c>
-      <c r="Y10">
+      <c r="W10" s="3">
         <v>278</v>
       </c>
-      <c r="Z10" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1473,58 +1386,49 @@
         <v>2.62</v>
       </c>
       <c r="I11">
+        <v>0.92</v>
+      </c>
+      <c r="J11">
         <v>0.27</v>
       </c>
-      <c r="J11">
-        <v>777.45</v>
-      </c>
       <c r="K11">
-        <v>100634.73</v>
-      </c>
-      <c r="L11">
-        <v>291.77</v>
-      </c>
-      <c r="N11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N11">
+        <v>21</v>
+      </c>
       <c r="O11">
-        <v>21</v>
+        <v>4.03</v>
       </c>
       <c r="P11">
-        <v>4.03</v>
+        <v>2.48</v>
       </c>
       <c r="Q11">
-        <v>2.48</v>
+        <v>1.05</v>
       </c>
       <c r="R11">
-        <v>1.05</v>
+        <v>6.6</v>
       </c>
       <c r="S11">
-        <v>6.6</v>
+        <v>63.72</v>
       </c>
       <c r="T11">
-        <v>63.72</v>
+        <v>2.1</v>
       </c>
       <c r="U11">
-        <v>2.1</v>
-      </c>
-      <c r="V11" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="V11">
         <v>0.26</v>
       </c>
-      <c r="W11">
-        <v>1758.95</v>
-      </c>
-      <c r="X11">
-        <v>173003.38</v>
-      </c>
-      <c r="Y11">
-        <v>439.62</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="W11" s="3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1550,58 +1454,49 @@
         <v>13.92</v>
       </c>
       <c r="I12">
+        <v>1.68</v>
+      </c>
+      <c r="J12">
         <v>2.4</v>
       </c>
-      <c r="J12">
-        <v>804.34</v>
-      </c>
       <c r="K12">
-        <v>85261.440000000002</v>
-      </c>
-      <c r="L12">
-        <v>202.63</v>
-      </c>
-      <c r="N12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N12">
+        <v>30</v>
+      </c>
       <c r="O12">
-        <v>30</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P12">
-        <v>4.0999999999999996</v>
+        <v>1.73</v>
       </c>
       <c r="Q12">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="R12">
-        <v>1.33</v>
+        <v>7.75</v>
       </c>
       <c r="S12">
-        <v>7.75</v>
+        <v>55.48</v>
       </c>
       <c r="T12">
-        <v>55.48</v>
+        <v>3.67</v>
       </c>
       <c r="U12">
-        <v>3.67</v>
-      </c>
-      <c r="V12" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="V12">
         <v>0.3</v>
       </c>
-      <c r="W12">
-        <v>1231.67</v>
-      </c>
-      <c r="X12">
-        <v>134676.20000000001</v>
-      </c>
-      <c r="Y12">
-        <v>320.60000000000002</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="W12" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1627,58 +1522,49 @@
         <v>1.67</v>
       </c>
       <c r="I13">
+        <v>1.26</v>
+      </c>
+      <c r="J13">
         <v>0.2</v>
       </c>
-      <c r="J13">
-        <v>480.17</v>
-      </c>
       <c r="K13">
-        <v>48091.22</v>
-      </c>
-      <c r="L13">
-        <v>125.39</v>
-      </c>
-      <c r="N13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N13">
+        <v>19</v>
+      </c>
       <c r="O13">
-        <v>19</v>
+        <v>4.01</v>
       </c>
       <c r="P13">
-        <v>4.01</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="Q13">
-        <v>2.0499999999999998</v>
+        <v>1.26</v>
       </c>
       <c r="R13">
-        <v>1.26</v>
+        <v>7.29</v>
       </c>
       <c r="S13">
-        <v>7.29</v>
+        <v>58.53</v>
       </c>
       <c r="T13">
-        <v>58.53</v>
+        <v>0.97</v>
       </c>
       <c r="U13">
-        <v>0.97</v>
-      </c>
-      <c r="V13" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="V13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W13">
-        <v>1768.05</v>
-      </c>
-      <c r="X13">
-        <v>206784.32</v>
-      </c>
-      <c r="Y13">
-        <v>447.05</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="W13" s="3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1704,58 +1590,49 @@
         <v>18.760000000000002</v>
       </c>
       <c r="I14">
+        <v>1.41</v>
+      </c>
+      <c r="J14">
         <v>3.25</v>
       </c>
-      <c r="J14">
-        <v>820.71</v>
-      </c>
       <c r="K14">
-        <v>92632.52</v>
-      </c>
-      <c r="L14">
-        <v>267.70999999999998</v>
-      </c>
-      <c r="N14" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="N14">
+        <v>39</v>
+      </c>
       <c r="O14">
-        <v>39</v>
+        <v>4.09</v>
       </c>
       <c r="P14">
-        <v>4.09</v>
+        <v>2.13</v>
       </c>
       <c r="Q14">
-        <v>2.13</v>
+        <v>1.08</v>
       </c>
       <c r="R14">
-        <v>1.08</v>
+        <v>5.51</v>
       </c>
       <c r="S14">
-        <v>5.51</v>
+        <v>64.53</v>
       </c>
       <c r="T14">
-        <v>64.53</v>
+        <v>13.1</v>
       </c>
       <c r="U14">
-        <v>13.1</v>
-      </c>
-      <c r="V14" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="V14">
         <v>1.47</v>
       </c>
-      <c r="W14">
-        <v>1034.31</v>
-      </c>
-      <c r="X14">
-        <v>117894.28</v>
-      </c>
-      <c r="Y14">
-        <v>303.38</v>
-      </c>
-      <c r="Z14" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="W14" s="3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1781,58 +1658,49 @@
         <v>1.49</v>
       </c>
       <c r="I15">
+        <v>1.03</v>
+      </c>
+      <c r="J15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J15">
-        <v>1333.2</v>
-      </c>
       <c r="K15">
-        <v>145070.98000000001</v>
-      </c>
-      <c r="L15">
-        <v>400.18</v>
-      </c>
-      <c r="N15" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="N15">
+        <v>29</v>
+      </c>
       <c r="O15">
-        <v>29</v>
+        <v>3.86</v>
       </c>
       <c r="P15">
-        <v>3.86</v>
+        <v>2.48</v>
       </c>
       <c r="Q15">
-        <v>2.48</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>5.97</v>
       </c>
       <c r="S15">
-        <v>5.97</v>
+        <v>71</v>
       </c>
       <c r="T15">
-        <v>71</v>
+        <v>2.74</v>
       </c>
       <c r="U15">
-        <v>2.74</v>
-      </c>
-      <c r="V15" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="V15">
         <v>0.32</v>
       </c>
-      <c r="W15">
-        <v>1444.86</v>
-      </c>
-      <c r="X15">
-        <v>165501.93</v>
-      </c>
-      <c r="Y15">
-        <v>351.55</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="W15" s="3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1858,58 +1726,49 @@
         <v>6.95</v>
       </c>
       <c r="I16">
+        <v>1.8</v>
+      </c>
+      <c r="J16">
         <v>0.6</v>
       </c>
-      <c r="J16">
-        <v>915</v>
-      </c>
       <c r="K16">
-        <v>106469.29</v>
-      </c>
-      <c r="L16">
         <v>236</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="N16">
+        <v>53</v>
+      </c>
       <c r="O16">
-        <v>53</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="P16">
-        <v>4.2699999999999996</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="Q16">
-        <v>2.2599999999999998</v>
+        <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.02</v>
+        <v>6.31</v>
       </c>
       <c r="S16">
-        <v>6.31</v>
+        <v>41.81</v>
       </c>
       <c r="T16">
-        <v>41.81</v>
+        <v>58.97</v>
       </c>
       <c r="U16">
-        <v>58.97</v>
-      </c>
-      <c r="V16" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="V16">
         <v>9.8800000000000008</v>
       </c>
-      <c r="W16">
-        <v>662.53</v>
-      </c>
-      <c r="X16">
-        <v>76007.17</v>
-      </c>
-      <c r="Y16">
-        <v>173.91</v>
-      </c>
-      <c r="Z16" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="W16" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1935,58 +1794,49 @@
         <v>6.55</v>
       </c>
       <c r="I17">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J17">
         <v>0.79</v>
       </c>
-      <c r="J17">
-        <v>201.7</v>
-      </c>
       <c r="K17">
-        <v>18503.7</v>
-      </c>
-      <c r="L17">
-        <v>58.9</v>
-      </c>
-      <c r="N17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="N17">
+        <v>11</v>
+      </c>
       <c r="O17">
-        <v>11</v>
+        <v>3.95</v>
       </c>
       <c r="P17">
-        <v>3.95</v>
+        <v>2.09</v>
       </c>
       <c r="Q17">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="R17">
-        <v>1.82</v>
+        <v>7.73</v>
       </c>
       <c r="S17">
-        <v>7.73</v>
+        <v>71.88</v>
       </c>
       <c r="T17">
-        <v>71.88</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="U17">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="V17" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="V17">
         <v>0.1</v>
       </c>
-      <c r="W17">
-        <v>2226.09</v>
-      </c>
-      <c r="X17">
-        <v>232450.27</v>
-      </c>
-      <c r="Y17">
-        <v>548.36</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="W17" s="3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2012,58 +1862,49 @@
         <v>9.89</v>
       </c>
       <c r="I18">
+        <v>1.38</v>
+      </c>
+      <c r="J18">
         <v>1.36</v>
       </c>
-      <c r="J18">
-        <v>452.89</v>
-      </c>
       <c r="K18">
-        <v>51908.58</v>
-      </c>
-      <c r="L18">
-        <v>180.74</v>
-      </c>
-      <c r="N18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="N18">
+        <v>24</v>
+      </c>
       <c r="O18">
-        <v>24</v>
+        <v>4.16</v>
       </c>
       <c r="P18">
-        <v>4.16</v>
+        <v>1.67</v>
       </c>
       <c r="Q18">
-        <v>1.67</v>
+        <v>3.79</v>
       </c>
       <c r="R18">
-        <v>3.79</v>
+        <v>12.24</v>
       </c>
       <c r="S18">
-        <v>12.24</v>
+        <v>51.73</v>
       </c>
       <c r="T18">
-        <v>51.73</v>
+        <v>26.44</v>
       </c>
       <c r="U18">
-        <v>26.44</v>
-      </c>
-      <c r="V18" s="3">
+        <v>1.91</v>
+      </c>
+      <c r="V18">
         <v>2.97</v>
       </c>
-      <c r="W18">
-        <v>1027.79</v>
-      </c>
-      <c r="X18">
-        <v>108117.04</v>
-      </c>
-      <c r="Y18">
-        <v>293.42</v>
-      </c>
-      <c r="Z18" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="W18" s="3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2089,58 +1930,49 @@
         <v>3.06</v>
       </c>
       <c r="I19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J19">
         <v>0.42</v>
       </c>
-      <c r="J19">
-        <v>467.78</v>
-      </c>
       <c r="K19">
-        <v>48774.080000000002</v>
-      </c>
-      <c r="L19">
-        <v>128.68</v>
-      </c>
-      <c r="N19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="N19">
+        <v>38</v>
+      </c>
       <c r="O19">
-        <v>38</v>
+        <v>3.88</v>
       </c>
       <c r="P19">
-        <v>3.88</v>
+        <v>3.47</v>
       </c>
       <c r="Q19">
-        <v>3.47</v>
+        <v>0.71</v>
       </c>
       <c r="R19">
-        <v>0.71</v>
+        <v>4.53</v>
       </c>
       <c r="S19">
-        <v>4.53</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="T19">
-        <v>68.900000000000006</v>
+        <v>54.71</v>
       </c>
       <c r="U19">
-        <v>54.71</v>
-      </c>
-      <c r="V19" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="V19">
         <v>8.4700000000000006</v>
       </c>
-      <c r="W19">
-        <v>1159.8399999999999</v>
-      </c>
-      <c r="X19">
-        <v>128551.66</v>
-      </c>
-      <c r="Y19">
-        <v>302.05</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="W19" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,58 +1998,49 @@
         <v>2.15</v>
       </c>
       <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
         <v>0.23</v>
       </c>
-      <c r="J20">
-        <v>475.12</v>
-      </c>
       <c r="K20">
-        <v>53121.56</v>
-      </c>
-      <c r="L20">
-        <v>409.69</v>
-      </c>
-      <c r="N20" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N20">
+        <v>20</v>
+      </c>
       <c r="O20">
-        <v>20</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P20">
-        <v>4.09</v>
+        <v>1.7</v>
       </c>
       <c r="Q20">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="R20">
-        <v>1.35</v>
+        <v>7.37</v>
       </c>
       <c r="S20">
-        <v>7.37</v>
+        <v>52.77</v>
       </c>
       <c r="T20">
-        <v>52.77</v>
+        <v>0.86</v>
       </c>
       <c r="U20">
-        <v>0.86</v>
-      </c>
-      <c r="V20" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="V20">
         <v>0.08</v>
       </c>
-      <c r="W20">
-        <v>1467.9</v>
-      </c>
-      <c r="X20">
-        <v>158959.35</v>
-      </c>
-      <c r="Y20">
-        <v>387.7</v>
-      </c>
-      <c r="Z20" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="W20" s="3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2243,58 +2066,49 @@
         <v>9.7100000000000009</v>
       </c>
       <c r="I21">
+        <v>1.73</v>
+      </c>
+      <c r="J21">
         <v>1.42</v>
       </c>
-      <c r="J21">
-        <v>859.82</v>
-      </c>
       <c r="K21">
-        <v>86494.76</v>
-      </c>
-      <c r="L21">
-        <v>218.76</v>
-      </c>
-      <c r="N21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="N21">
+        <v>22</v>
+      </c>
       <c r="O21">
-        <v>22</v>
+        <v>4.17</v>
       </c>
       <c r="P21">
-        <v>4.17</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="Q21">
-        <v>2.5499999999999998</v>
+        <v>3.14</v>
       </c>
       <c r="R21">
-        <v>3.14</v>
+        <v>14</v>
       </c>
       <c r="S21">
-        <v>14</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="T21">
-        <v>64.680000000000007</v>
+        <v>2.09</v>
       </c>
       <c r="U21">
-        <v>2.09</v>
-      </c>
-      <c r="V21" s="3">
+        <v>1.88</v>
+      </c>
+      <c r="V21">
         <v>0.25</v>
       </c>
-      <c r="W21">
-        <v>2707.5</v>
-      </c>
-      <c r="X21">
-        <v>274507.45</v>
-      </c>
-      <c r="Y21">
-        <v>677.86</v>
-      </c>
-      <c r="Z21" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="W21" s="3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2320,58 +2134,49 @@
         <v>26.58</v>
       </c>
       <c r="I22">
+        <v>1.59</v>
+      </c>
+      <c r="J22">
         <v>5.54</v>
       </c>
-      <c r="J22">
-        <v>411.35</v>
-      </c>
       <c r="K22">
-        <v>50216.57</v>
-      </c>
-      <c r="L22">
-        <v>332.43</v>
-      </c>
-      <c r="N22" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N22">
+        <v>19</v>
+      </c>
       <c r="O22">
-        <v>19</v>
+        <v>4.12</v>
       </c>
       <c r="P22">
-        <v>4.12</v>
+        <v>2.11</v>
       </c>
       <c r="Q22">
-        <v>2.11</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="R22">
-        <v>1.1599999999999999</v>
+        <v>6.63</v>
       </c>
       <c r="S22">
-        <v>6.63</v>
+        <v>68.94</v>
       </c>
       <c r="T22">
-        <v>68.94</v>
+        <v>1.05</v>
       </c>
       <c r="U22">
-        <v>1.05</v>
-      </c>
-      <c r="V22" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="V22">
         <v>0.12</v>
       </c>
-      <c r="W22">
-        <v>1313.05</v>
-      </c>
-      <c r="X22">
-        <v>151918</v>
-      </c>
-      <c r="Y22">
-        <v>347.37</v>
-      </c>
-      <c r="Z22" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="W22" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2397,58 +2202,49 @@
         <v>28.07</v>
       </c>
       <c r="I23">
+        <v>1.65</v>
+      </c>
+      <c r="J23">
         <v>4.46</v>
       </c>
-      <c r="J23">
-        <v>370.22</v>
-      </c>
       <c r="K23">
-        <v>39734.21</v>
-      </c>
-      <c r="L23">
-        <v>125.28</v>
-      </c>
-      <c r="N23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="N23">
+        <v>91</v>
+      </c>
       <c r="O23">
-        <v>91</v>
+        <v>3.98</v>
       </c>
       <c r="P23">
-        <v>3.98</v>
+        <v>1.29</v>
       </c>
       <c r="Q23">
-        <v>1.29</v>
+        <v>2.1</v>
       </c>
       <c r="R23">
-        <v>2.1</v>
+        <v>8.11</v>
       </c>
       <c r="S23">
-        <v>8.11</v>
+        <v>44.49</v>
       </c>
       <c r="T23">
-        <v>44.49</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="U23">
-        <v>40.049999999999997</v>
-      </c>
-      <c r="V23" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="V23">
         <v>5.58</v>
       </c>
-      <c r="W23">
-        <v>741.41</v>
-      </c>
-      <c r="X23">
-        <v>71397.070000000007</v>
-      </c>
-      <c r="Y23">
-        <v>194.19</v>
-      </c>
-      <c r="Z23" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="W23" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2474,58 +2270,49 @@
         <v>10.02</v>
       </c>
       <c r="I24">
+        <v>1.59</v>
+      </c>
+      <c r="J24">
         <v>1.68</v>
       </c>
-      <c r="J24">
-        <v>888.7</v>
-      </c>
       <c r="K24">
-        <v>103557.39</v>
-      </c>
-      <c r="L24">
-        <v>250.96</v>
-      </c>
-      <c r="N24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
       <c r="O24">
-        <v>10</v>
+        <v>4.12</v>
       </c>
       <c r="P24">
-        <v>4.12</v>
+        <v>2.8</v>
       </c>
       <c r="Q24">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="R24">
-        <v>1.6</v>
+        <v>10.3</v>
       </c>
       <c r="S24">
-        <v>10.3</v>
+        <v>73.92</v>
       </c>
       <c r="T24">
-        <v>73.92</v>
+        <v>28.18</v>
       </c>
       <c r="U24">
-        <v>28.18</v>
-      </c>
-      <c r="V24" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="V24">
         <v>2.99</v>
       </c>
-      <c r="W24">
-        <v>1740.6</v>
-      </c>
-      <c r="X24">
-        <v>190340.9</v>
-      </c>
-      <c r="Y24">
-        <v>395.3</v>
-      </c>
-      <c r="Z24" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="W24" s="3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -2551,174 +2338,162 @@
         <v>15.55</v>
       </c>
       <c r="I25">
+        <v>1.85</v>
+      </c>
+      <c r="J25">
         <v>3.17</v>
       </c>
-      <c r="J25">
-        <v>688.35</v>
-      </c>
       <c r="K25">
-        <v>75770.38</v>
-      </c>
-      <c r="L25">
-        <v>200.08</v>
-      </c>
-      <c r="N25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="N25">
+        <v>29</v>
+      </c>
       <c r="O25">
+        <v>3.99</v>
+      </c>
+      <c r="P25">
+        <v>2.41</v>
+      </c>
+      <c r="Q25">
+        <v>1.21</v>
+      </c>
+      <c r="R25">
+        <v>7.5</v>
+      </c>
+      <c r="S25">
+        <v>64.05</v>
+      </c>
+      <c r="T25">
+        <v>1.22</v>
+      </c>
+      <c r="U25">
+        <v>1.3</v>
+      </c>
+      <c r="V25">
+        <v>0.12</v>
+      </c>
+      <c r="W25" s="3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P25">
-        <v>3.99</v>
-      </c>
-      <c r="Q25">
-        <v>2.41</v>
-      </c>
-      <c r="R25">
-        <v>1.21</v>
-      </c>
-      <c r="S25">
-        <v>7.5</v>
-      </c>
-      <c r="T25">
-        <v>64.05</v>
-      </c>
-      <c r="U25">
-        <v>1.22</v>
-      </c>
-      <c r="V25" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="W25">
-        <v>1294.76</v>
-      </c>
-      <c r="X25">
-        <v>141203.76</v>
-      </c>
-      <c r="Y25">
-        <v>357.17</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="E26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="O26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="P26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="Q26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="R26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="S26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="10" t="s">
+      <c r="T26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="V26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="X26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y26" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="B30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="3">
+      <c r="M30" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31">
         <v>798</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>2.4900000000000002</v>
       </c>
       <c r="D31">
@@ -2737,26 +2512,29 @@
         <v>24.56</v>
       </c>
       <c r="I31">
+        <v>1.32</v>
+      </c>
+      <c r="J31">
         <v>1.82</v>
       </c>
-      <c r="J31">
-        <v>613.26</v>
-      </c>
       <c r="K31">
-        <v>67310.87</v>
+        <v>194</v>
       </c>
       <c r="L31">
-        <v>194.26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="B32" s="3">
+        <v>67311</v>
+      </c>
+      <c r="M31">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32">
         <v>861</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>4.07</v>
       </c>
       <c r="D32">
@@ -2775,16 +2553,19 @@
         <v>14.95</v>
       </c>
       <c r="I32">
+        <v>1.45</v>
+      </c>
+      <c r="J32">
         <v>2.1800000000000002</v>
       </c>
-      <c r="J32">
-        <v>1261.02</v>
-      </c>
       <c r="K32">
-        <v>135669.87</v>
+        <v>354</v>
       </c>
       <c r="L32">
-        <v>354.37</v>
+        <v>135670</v>
+      </c>
+      <c r="M32">
+        <v>30.4</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +2628,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2857,59 +2638,59 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="P3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2927,7 +2708,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2936,297 +2717,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3">
+        <v>798</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D2">
+        <v>1.7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>5.28</v>
+      </c>
+      <c r="G2">
+        <v>48.34</v>
+      </c>
+      <c r="H2">
+        <v>24.56</v>
+      </c>
+      <c r="I2">
+        <v>1.82</v>
+      </c>
+      <c r="J2">
+        <v>613.26</v>
+      </c>
+      <c r="K2">
+        <v>67310.87</v>
+      </c>
+      <c r="L2">
+        <v>194.26</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="6" t="s">
-        <v>33</v>
+      <c r="A3" s="7">
+        <v>3.5</v>
       </c>
       <c r="B3" s="3">
-        <v>798</v>
+        <v>861</v>
       </c>
       <c r="C3" s="3">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2.78</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>7.14</v>
-      </c>
-      <c r="G3" s="3">
-        <v>48.34</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
-        <f>ROUND((F3/E3),2)</f>
-        <v>2.86</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>861</v>
-      </c>
-      <c r="C4" s="3">
         <v>4.07</v>
       </c>
-      <c r="D4" s="3">
-        <v>2.85</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.06</v>
-      </c>
-      <c r="F4" s="3">
-        <v>10.92</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="D3">
+        <v>2.23</v>
+      </c>
+      <c r="E3">
+        <v>1.51</v>
+      </c>
+      <c r="F3">
+        <v>7.56</v>
+      </c>
+      <c r="G3">
         <v>58.97</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <f>ROUND((F4/E4),2)</f>
-        <v>3.57</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="3">
-        <v>798</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="D7">
-        <v>1.7</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>5.28</v>
-      </c>
-      <c r="G7">
-        <v>48.34</v>
-      </c>
-      <c r="H7">
-        <v>24.56</v>
-      </c>
-      <c r="I7">
-        <v>1.82</v>
-      </c>
-      <c r="J7">
-        <v>613.26</v>
-      </c>
-      <c r="K7">
-        <v>67310.87</v>
-      </c>
-      <c r="L7">
-        <v>194.26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>861</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4.07</v>
-      </c>
-      <c r="D8">
-        <v>2.23</v>
-      </c>
-      <c r="E8">
-        <v>1.51</v>
-      </c>
-      <c r="F8">
-        <v>7.56</v>
-      </c>
-      <c r="G8">
-        <v>58.97</v>
-      </c>
-      <c r="H8">
+      <c r="H3">
         <v>14.95</v>
       </c>
-      <c r="I8">
+      <c r="I3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="J8">
+      <c r="J3">
         <v>1261.02</v>
       </c>
-      <c r="K8">
+      <c r="K3">
         <v>135669.87</v>
       </c>
-      <c r="L8">
+      <c r="L3">
         <v>354.37</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:12">
       <c r="I16" s="3"/>
@@ -3272,19 +2871,19 @@
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3426,7 +3025,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>4.4000000000000004</v>
@@ -3636,7 +3235,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>3.9</v>
@@ -4470,7 +4069,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>3.7</v>
@@ -6476,7 +6075,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B94">
         <v>4.3</v>
@@ -6511,7 +6110,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B95">
         <v>3.7</v>
@@ -6791,7 +6390,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B103">
         <v>4.0999999999999996</v>
@@ -7068,7 +6667,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B111">
         <v>4.5999999999999996</v>
@@ -7418,7 +7017,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B121">
         <v>4.5</v>
@@ -7453,7 +7052,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B122">
         <v>4.2</v>
@@ -7803,7 +7402,7 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B132">
         <v>4.8</v>
@@ -7908,7 +7507,7 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B135">
         <v>4.2</v>
@@ -9436,7 +9035,7 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B179">
         <v>4.8</v>
@@ -9786,7 +9385,7 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B189">
         <v>3.9</v>
@@ -9926,7 +9525,7 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B193">
         <v>4.2</v>
@@ -10171,7 +9770,7 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B200">
         <v>4.4000000000000004</v>
@@ -10903,7 +10502,7 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B221">
         <v>4.2</v>
@@ -11183,7 +10782,7 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B229">
         <v>3.8</v>
@@ -11253,7 +10852,7 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B231">
         <v>4.8</v>
@@ -11393,7 +10992,7 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B235">
         <v>4.4000000000000004</v>
@@ -11428,7 +11027,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B236">
         <v>3.8</v>
@@ -12090,7 +11689,7 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B255">
         <v>4.4000000000000004</v>
@@ -12125,7 +11724,7 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B256">
         <v>4.5</v>
@@ -12195,7 +11794,7 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B258">
         <v>4.4000000000000004</v>
@@ -12580,7 +12179,7 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B269">
         <v>3.9</v>
@@ -12717,7 +12316,7 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B273">
         <v>4.0999999999999996</v>
@@ -13029,7 +12628,7 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B282">
         <v>4.5999999999999996</v>
@@ -13239,7 +12838,7 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B288">
         <v>3.7</v>
@@ -13379,7 +12978,7 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B292">
         <v>3.7</v>
@@ -13726,7 +13325,7 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B302">
         <v>4.2</v>
@@ -13796,7 +13395,7 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B304">
         <v>3.8</v>
@@ -14038,7 +13637,7 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B311">
         <v>3.9</v>
@@ -14283,7 +13882,7 @@
     </row>
     <row r="318" spans="1:11">
       <c r="A318" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B318">
         <v>4.5</v>
@@ -14353,7 +13952,7 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B320">
         <v>3.9</v>
@@ -14388,7 +13987,7 @@
     </row>
     <row r="321" spans="1:11">
       <c r="A321" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B321">
         <v>4.3</v>
@@ -14563,7 +14162,7 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B326">
         <v>4.0999999999999996</v>
@@ -14948,7 +14547,7 @@
     </row>
     <row r="337" spans="1:11">
       <c r="A337" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B337">
         <v>3.8</v>
@@ -15018,7 +14617,7 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B339">
         <v>3.9</v>
@@ -15123,7 +14722,7 @@
     </row>
     <row r="342" spans="1:11">
       <c r="A342" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B342">
         <v>4.5</v>
@@ -15502,7 +15101,7 @@
     </row>
     <row r="353" spans="1:11">
       <c r="A353" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B353">
         <v>3.4</v>
@@ -15782,7 +15381,7 @@
     </row>
     <row r="361" spans="1:11">
       <c r="A361" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B361">
         <v>4</v>
@@ -17826,7 +17425,7 @@
     </row>
     <row r="420" spans="1:11">
       <c r="A420" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B420">
         <v>4.0999999999999996</v>
@@ -18418,7 +18017,7 @@
     </row>
     <row r="437" spans="1:11">
       <c r="A437" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B437">
         <v>4</v>
@@ -18940,7 +18539,7 @@
     </row>
     <row r="452" spans="1:11">
       <c r="A452" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B452">
         <v>4.0999999999999996</v>
@@ -19185,7 +18784,7 @@
     </row>
     <row r="459" spans="1:11">
       <c r="A459" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B459">
         <v>4.2</v>
@@ -19395,7 +18994,7 @@
     </row>
     <row r="465" spans="1:11">
       <c r="A465" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B465">
         <v>4.5999999999999996</v>
@@ -19984,7 +19583,7 @@
     </row>
     <row r="482" spans="1:11">
       <c r="A482" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B482">
         <v>4.2</v>
@@ -20719,7 +20318,7 @@
     </row>
     <row r="503" spans="1:11">
       <c r="A503" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B503">
         <v>3.3</v>
@@ -21375,7 +20974,7 @@
     </row>
     <row r="522" spans="1:11">
       <c r="A522" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B522">
         <v>3.5</v>
@@ -21582,7 +21181,7 @@
     </row>
     <row r="528" spans="1:11">
       <c r="A528" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B528">
         <v>4.3</v>
@@ -21652,7 +21251,7 @@
     </row>
     <row r="530" spans="1:11">
       <c r="A530" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B530">
         <v>4.4000000000000004</v>
@@ -21687,7 +21286,7 @@
     </row>
     <row r="531" spans="1:11">
       <c r="A531" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B531">
         <v>4.0999999999999996</v>
@@ -22002,7 +21601,7 @@
     </row>
     <row r="540" spans="1:11">
       <c r="A540" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B540">
         <v>4.2</v>
@@ -22104,7 +21703,7 @@
     </row>
     <row r="543" spans="1:11">
       <c r="A543" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B543">
         <v>4.4000000000000004</v>
@@ -22171,7 +21770,7 @@
     </row>
     <row r="545" spans="1:11">
       <c r="A545" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -22241,7 +21840,7 @@
     </row>
     <row r="547" spans="1:11">
       <c r="A547" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B547">
         <v>3.9</v>
@@ -23043,7 +22642,7 @@
     </row>
     <row r="570" spans="1:11">
       <c r="A570" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B570">
         <v>4.5</v>
@@ -23113,7 +22712,7 @@
     </row>
     <row r="572" spans="1:11">
       <c r="A572" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B572">
         <v>4.2</v>
@@ -24195,7 +23794,7 @@
     </row>
     <row r="603" spans="1:11">
       <c r="A603" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B603">
         <v>3.8</v>
@@ -24300,7 +23899,7 @@
     </row>
     <row r="606" spans="1:11">
       <c r="A606" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B606">
         <v>3.5</v>
@@ -24542,7 +24141,7 @@
     </row>
     <row r="613" spans="1:11">
       <c r="A613" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B613">
         <v>3.7</v>
@@ -24679,7 +24278,7 @@
     </row>
     <row r="617" spans="1:11">
       <c r="A617" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B617">
         <v>3.9</v>
@@ -24959,7 +24558,7 @@
     </row>
     <row r="625" spans="1:11">
       <c r="A625" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B625">
         <v>3.5</v>
@@ -25204,7 +24803,7 @@
     </row>
     <row r="632" spans="1:11">
       <c r="A632" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B632">
         <v>4.3</v>
@@ -25344,7 +24943,7 @@
     </row>
     <row r="636" spans="1:11">
       <c r="A636" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B636">
         <v>4.2</v>
@@ -25656,7 +25255,7 @@
     </row>
     <row r="645" spans="1:11">
       <c r="A645" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B645">
         <v>3.7</v>
@@ -26283,7 +25882,7 @@
     </row>
     <row r="663" spans="1:11">
       <c r="A663" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B663">
         <v>4.0999999999999996</v>
@@ -26805,7 +26404,7 @@
     </row>
     <row r="678" spans="1:11">
       <c r="A678" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B678">
         <v>4.0999999999999996</v>
@@ -27225,7 +26824,7 @@
     </row>
     <row r="690" spans="1:11">
       <c r="A690" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B690">
         <v>4.0999999999999996</v>
@@ -28170,7 +27769,7 @@
     </row>
     <row r="717" spans="1:11">
       <c r="A717" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B717">
         <v>3.8</v>
@@ -28520,7 +28119,7 @@
     </row>
     <row r="727" spans="1:11">
       <c r="A727" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B727">
         <v>4</v>
@@ -28660,7 +28259,7 @@
     </row>
     <row r="731" spans="1:11">
       <c r="A731" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B731">
         <v>4.5999999999999996</v>
@@ -28800,7 +28399,7 @@
     </row>
     <row r="735" spans="1:11">
       <c r="A735" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B735">
         <v>3.7</v>
@@ -29182,7 +28781,7 @@
     </row>
     <row r="746" spans="1:11">
       <c r="A746" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B746">
         <v>4</v>
@@ -29456,7 +29055,7 @@
     </row>
     <row r="754" spans="1:11">
       <c r="A754" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B754">
         <v>3.9</v>
@@ -30570,7 +30169,7 @@
     </row>
     <row r="786" spans="1:11">
       <c r="A786" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B786">
         <v>4.8</v>
@@ -31366,7 +30965,7 @@
     </row>
     <row r="809" spans="1:11">
       <c r="A809" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B809">
         <v>4.2</v>
@@ -31716,7 +31315,7 @@
     </row>
     <row r="819" spans="1:11">
       <c r="A819" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B819">
         <v>4.7</v>
@@ -31821,7 +31420,7 @@
     </row>
     <row r="822" spans="1:11">
       <c r="A822" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B822">
         <v>3.9</v>
@@ -31856,7 +31455,7 @@
     </row>
     <row r="823" spans="1:11">
       <c r="A823" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B823">
         <v>4.4000000000000004</v>
@@ -32136,7 +31735,7 @@
     </row>
     <row r="831" spans="1:11">
       <c r="A831" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B831">
         <v>3.8</v>
@@ -32206,7 +31805,7 @@
     </row>
     <row r="833" spans="1:11">
       <c r="A833" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B833">
         <v>4</v>
@@ -33101,7 +32700,7 @@
     </row>
     <row r="859" spans="1:11">
       <c r="A859" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B859">
         <v>4.2</v>
@@ -33171,7 +32770,7 @@
     </row>
     <row r="861" spans="1:11">
       <c r="A861" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B861">
         <v>3.9</v>
@@ -33206,7 +32805,7 @@
     </row>
     <row r="862" spans="1:11">
       <c r="A862" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B862">
         <v>3.6</v>
@@ -33256,19 +32855,19 @@
         <v>32</v>
       </c>
       <c r="G863" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H863" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I863" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J863" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K863" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="864" spans="1:11">
@@ -33322,4 +32921,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
+++ b/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
@@ -672,7 +672,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
+++ b/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="100" windowWidth="25620" windowHeight="15400"/>
+    <workbookView xWindow="645" yWindow="105" windowWidth="25620" windowHeight="15405"/>
   </bookViews>
   <sheets>
     <sheet name="GenreGrouping" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="foo 1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="64">
   <si>
     <t>Genre</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Jlint_LOC</t>
+  </si>
+  <si>
+    <t>Monday</t>
   </si>
 </sst>
 </file>
@@ -669,18 +672,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="23" max="23" width="8.83203125" style="3"/>
+    <col min="22" max="22" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -714,6 +717,9 @@
       <c r="K1" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="M1" s="4" t="s">
         <v>0</v>
       </c>
@@ -747,8 +753,11 @@
       <c r="W1" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -782,6 +791,9 @@
       <c r="K2">
         <v>88</v>
       </c>
+      <c r="L2">
+        <v>35.1</v>
+      </c>
       <c r="M2" s="1" t="s">
         <v>1</v>
       </c>
@@ -812,11 +824,17 @@
       <c r="V2">
         <v>0.16</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2">
         <v>468</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -850,6 +868,9 @@
       <c r="K3">
         <v>227</v>
       </c>
+      <c r="L3">
+        <v>27</v>
+      </c>
       <c r="M3" s="1" t="s">
         <v>2</v>
       </c>
@@ -878,13 +899,19 @@
         <v>1.98</v>
       </c>
       <c r="V3">
-        <v>0.98</v>
-      </c>
-      <c r="W3" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="W3">
         <v>281</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>53.9</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -918,6 +945,9 @@
       <c r="K4">
         <v>220</v>
       </c>
+      <c r="L4">
+        <v>28.6</v>
+      </c>
       <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
@@ -948,11 +978,17 @@
       <c r="V4">
         <v>0.17</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4">
         <v>428</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>28.7</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -986,6 +1022,9 @@
       <c r="K5">
         <v>385</v>
       </c>
+      <c r="L5">
+        <v>28.1</v>
+      </c>
       <c r="M5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1016,11 +1055,17 @@
       <c r="V5">
         <v>0.08</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5">
         <v>435</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5">
+        <v>29.6</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1054,6 +1099,9 @@
       <c r="K6">
         <v>74</v>
       </c>
+      <c r="L6">
+        <v>31.4</v>
+      </c>
       <c r="M6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1084,11 +1132,17 @@
       <c r="V6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6">
         <v>411</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1122,6 +1176,9 @@
       <c r="K7">
         <v>230</v>
       </c>
+      <c r="L7">
+        <v>24.6</v>
+      </c>
       <c r="M7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1152,11 +1209,17 @@
       <c r="V7">
         <v>3.81</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7">
         <v>456</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7">
+        <v>36.9</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1190,6 +1253,9 @@
       <c r="K8">
         <v>148</v>
       </c>
+      <c r="L8">
+        <v>28.4</v>
+      </c>
       <c r="M8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1220,11 +1286,17 @@
       <c r="V8">
         <v>0.47</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8">
         <v>315</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1258,6 +1330,9 @@
       <c r="K9">
         <v>110</v>
       </c>
+      <c r="L9">
+        <v>28.4</v>
+      </c>
       <c r="M9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1288,11 +1363,17 @@
       <c r="V9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9">
         <v>428</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1326,6 +1407,9 @@
       <c r="K10">
         <v>185</v>
       </c>
+      <c r="L10">
+        <v>30.6</v>
+      </c>
       <c r="M10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1356,11 +1440,17 @@
       <c r="V10">
         <v>0.4</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10">
         <v>278</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10">
+        <v>29.5</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1394,6 +1484,9 @@
       <c r="K11">
         <v>292</v>
       </c>
+      <c r="L11">
+        <v>28.8</v>
+      </c>
       <c r="M11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1424,11 +1517,17 @@
       <c r="V11">
         <v>0.26</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11">
         <v>440</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1462,6 +1561,9 @@
       <c r="K12">
         <v>203</v>
       </c>
+      <c r="L12">
+        <v>24.3</v>
+      </c>
       <c r="M12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1492,11 +1594,17 @@
       <c r="V12">
         <v>0.3</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12">
         <v>321</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12">
+        <v>25.6</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1530,6 +1638,9 @@
       <c r="K13">
         <v>125</v>
       </c>
+      <c r="L13">
+        <v>23.2</v>
+      </c>
       <c r="M13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1560,11 +1671,17 @@
       <c r="V13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13">
         <v>447</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13">
+        <v>23.6</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,6 +1715,9 @@
       <c r="K14">
         <v>268</v>
       </c>
+      <c r="L14">
+        <v>26.7</v>
+      </c>
       <c r="M14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1628,11 +1748,17 @@
       <c r="V14">
         <v>1.47</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14">
         <v>303</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14">
+        <v>26</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1666,6 +1792,9 @@
       <c r="K15">
         <v>400</v>
       </c>
+      <c r="L15">
+        <v>33.1</v>
+      </c>
       <c r="M15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1696,11 +1825,17 @@
       <c r="V15">
         <v>0.32</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15">
         <v>352</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15">
+        <v>22.3</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1734,6 +1869,9 @@
       <c r="K16">
         <v>236</v>
       </c>
+      <c r="L16">
+        <v>40.700000000000003</v>
+      </c>
       <c r="M16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1764,11 +1902,17 @@
       <c r="V16">
         <v>9.8800000000000008</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16">
         <v>174</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16">
+        <v>23.3</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1802,6 +1946,9 @@
       <c r="K17">
         <v>59</v>
       </c>
+      <c r="L17">
+        <v>35.200000000000003</v>
+      </c>
       <c r="M17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1832,11 +1979,17 @@
       <c r="V17">
         <v>0.1</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17">
         <v>548</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17">
+        <v>30.1</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1870,6 +2023,9 @@
       <c r="K18">
         <v>181</v>
       </c>
+      <c r="L18">
+        <v>27.5</v>
+      </c>
       <c r="M18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1900,11 +2056,17 @@
       <c r="V18">
         <v>2.97</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18">
         <v>293</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18">
+        <v>25.1</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1938,6 +2100,9 @@
       <c r="K19">
         <v>129</v>
       </c>
+      <c r="L19">
+        <v>30.7</v>
+      </c>
       <c r="M19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1968,11 +2133,17 @@
       <c r="V19">
         <v>8.4700000000000006</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19">
         <v>302</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19">
+        <v>25.8</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2006,6 +2177,9 @@
       <c r="K20">
         <v>410</v>
       </c>
+      <c r="L20">
+        <v>34.4</v>
+      </c>
       <c r="M20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,7 +2187,7 @@
         <v>20</v>
       </c>
       <c r="O20">
-        <v>4.0999999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="P20">
         <v>1.7</v>
@@ -2036,11 +2210,17 @@
       <c r="V20">
         <v>0.08</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20">
         <v>388</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>28.7</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2074,6 +2254,9 @@
       <c r="K21">
         <v>219</v>
       </c>
+      <c r="L21">
+        <v>31</v>
+      </c>
       <c r="M21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2104,11 +2287,17 @@
       <c r="V21">
         <v>0.25</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21">
         <v>678</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>24.6</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2142,6 +2331,9 @@
       <c r="K22">
         <v>332</v>
       </c>
+      <c r="L22">
+        <v>30.4</v>
+      </c>
       <c r="M22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2172,11 +2364,17 @@
       <c r="V22">
         <v>0.12</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22">
         <v>347</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22">
+        <v>24</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2210,6 +2408,9 @@
       <c r="K23">
         <v>125</v>
       </c>
+      <c r="L23">
+        <v>27.3</v>
+      </c>
       <c r="M23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2240,11 +2441,17 @@
       <c r="V23">
         <v>5.58</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23">
         <v>194</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23">
+        <v>29.5</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2278,6 +2485,9 @@
       <c r="K24">
         <v>251</v>
       </c>
+      <c r="L24">
+        <v>26</v>
+      </c>
       <c r="M24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2308,11 +2518,17 @@
       <c r="V24">
         <v>2.99</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24">
         <v>395</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -2346,6 +2562,9 @@
       <c r="K25">
         <v>200</v>
       </c>
+      <c r="L25">
+        <v>28.6</v>
+      </c>
       <c r="M25" s="1" t="s">
         <v>26</v>
       </c>
@@ -2376,11 +2595,17 @@
       <c r="V25">
         <v>0.12</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25">
         <v>357</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25">
+        <v>28.4</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>0</v>
       </c>
@@ -2414,6 +2639,9 @@
       <c r="K26" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="L26" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="M26" s="4" t="s">
         <v>0</v>
       </c>
@@ -2447,8 +2675,17 @@
       <c r="W26" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X26" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V27"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V28"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
@@ -2486,7 +2723,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -2527,7 +2764,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -2570,7 +2807,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2587,14 +2824,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2613,7 +2850,7 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -2636,7 +2873,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -2705,18 +2942,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+      <selection activeCell="A11" sqref="A11:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>27</v>
       </c>
@@ -2751,7 +2988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -2789,7 +3026,7 @@
         <v>194.26</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>3.5</v>
       </c>
@@ -2827,7 +3064,132 @@
         <v>354.37</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>798</v>
+      </c>
+      <c r="C12">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D12">
+        <v>1.7</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5.28</v>
+      </c>
+      <c r="G12">
+        <v>48.34</v>
+      </c>
+      <c r="H12">
+        <v>24.56</v>
+      </c>
+      <c r="I12">
+        <v>1.32</v>
+      </c>
+      <c r="J12">
+        <v>1.82</v>
+      </c>
+      <c r="K12">
+        <v>194</v>
+      </c>
+      <c r="L12">
+        <v>67311</v>
+      </c>
+      <c r="M12">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>861</v>
+      </c>
+      <c r="C13">
+        <v>4.07</v>
+      </c>
+      <c r="D13">
+        <v>2.23</v>
+      </c>
+      <c r="E13">
+        <v>1.51</v>
+      </c>
+      <c r="F13">
+        <v>7.56</v>
+      </c>
+      <c r="G13">
+        <v>58.97</v>
+      </c>
+      <c r="H13">
+        <v>14.95</v>
+      </c>
+      <c r="I13">
+        <v>1.45</v>
+      </c>
+      <c r="J13">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K13">
+        <v>354</v>
+      </c>
+      <c r="L13">
+        <v>135670</v>
+      </c>
+      <c r="M13">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I16" s="3"/>
     </row>
   </sheetData>
@@ -2849,9 +3211,9 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2886,7 +3248,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2921,7 +3283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2956,7 +3318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2988,7 +3350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3023,7 +3385,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3058,7 +3420,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3093,7 +3455,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3128,7 +3490,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3163,7 +3525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3198,7 +3560,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3233,7 +3595,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3268,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3303,7 +3665,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3338,7 +3700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3373,7 +3735,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3408,7 +3770,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3443,7 +3805,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3478,7 +3840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3513,7 +3875,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -3548,7 +3910,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3583,7 +3945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3618,7 +3980,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -3653,7 +4015,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -3685,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3720,7 +4082,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -3752,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -3787,7 +4149,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3822,7 +4184,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -3857,7 +4219,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -3892,7 +4254,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3927,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -3962,7 +4324,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3997,7 +4359,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4032,7 +4394,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -4067,7 +4429,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4099,7 +4461,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -4134,7 +4496,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -4169,7 +4531,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -4204,7 +4566,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4239,7 +4601,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -4271,7 +4633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -4306,7 +4668,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -4341,7 +4703,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -4376,7 +4738,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -4411,7 +4773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -4446,7 +4808,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -4481,7 +4843,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4516,7 +4878,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -4551,7 +4913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -4586,7 +4948,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -4621,7 +4983,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -4656,7 +5018,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -4691,7 +5053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -4726,7 +5088,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -4758,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -4793,7 +5155,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -4828,7 +5190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -4863,7 +5225,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -4898,7 +5260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -4933,7 +5295,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -4968,7 +5330,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -5003,7 +5365,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -5038,7 +5400,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -5073,7 +5435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -5108,7 +5470,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -5143,7 +5505,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -5178,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -5213,7 +5575,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -5248,7 +5610,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -5280,7 +5642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -5315,7 +5677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -5350,7 +5712,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -5385,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -5420,7 +5782,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -5455,7 +5817,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -5490,7 +5852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -5525,7 +5887,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -5560,7 +5922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -5595,7 +5957,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -5627,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -5659,7 +6021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -5694,7 +6056,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -5729,7 +6091,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -5764,7 +6126,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -5799,7 +6161,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -5831,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -5866,7 +6228,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -5901,7 +6263,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -5936,7 +6298,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -5968,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -6003,7 +6365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -6038,7 +6400,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -6073,7 +6435,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>48</v>
       </c>
@@ -6108,7 +6470,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -6143,7 +6505,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -6178,7 +6540,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -6213,7 +6575,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -6248,7 +6610,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -6283,7 +6645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -6318,7 +6680,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -6353,7 +6715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -6388,7 +6750,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>48</v>
       </c>
@@ -6423,7 +6785,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -6458,7 +6820,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -6493,7 +6855,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -6528,7 +6890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -6563,7 +6925,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -6595,7 +6957,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -6630,7 +6992,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -6665,7 +7027,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>50</v>
       </c>
@@ -6700,7 +7062,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -6735,7 +7097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -6770,7 +7132,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -6805,7 +7167,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -6840,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -6875,7 +7237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -6910,7 +7272,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -6945,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -6980,7 +7342,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -7015,7 +7377,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>41</v>
       </c>
@@ -7050,7 +7412,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -7085,7 +7447,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -7120,7 +7482,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -7155,7 +7517,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -7190,7 +7552,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>22</v>
       </c>
@@ -7225,7 +7587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -7260,7 +7622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -7295,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -7330,7 +7692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -7365,7 +7727,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -7400,7 +7762,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>51</v>
       </c>
@@ -7435,7 +7797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>23</v>
       </c>
@@ -7470,7 +7832,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -7505,7 +7867,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>50</v>
       </c>
@@ -7540,7 +7902,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -7575,7 +7937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -7610,7 +7972,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -7645,7 +8007,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -7680,7 +8042,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -7715,7 +8077,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -7750,7 +8112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -7782,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -7817,7 +8179,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -7852,7 +8214,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -7887,7 +8249,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -7922,7 +8284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -7957,7 +8319,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -7992,7 +8354,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -8027,7 +8389,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -8062,7 +8424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -8097,7 +8459,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -8132,7 +8494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -8167,7 +8529,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>23</v>
       </c>
@@ -8202,7 +8564,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -8237,7 +8599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -8272,7 +8634,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -8307,7 +8669,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -8342,7 +8704,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -8377,7 +8739,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -8412,7 +8774,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>24</v>
       </c>
@@ -8447,7 +8809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -8482,7 +8844,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -8514,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -8549,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -8584,7 +8946,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -8616,7 +8978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -8651,7 +9013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -8686,7 +9048,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -8721,7 +9083,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>24</v>
       </c>
@@ -8756,7 +9118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>16</v>
       </c>
@@ -8791,7 +9153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -8826,7 +9188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -8861,7 +9223,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -8896,7 +9258,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>16</v>
       </c>
@@ -8928,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>3</v>
       </c>
@@ -8963,7 +9325,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -8998,7 +9360,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -9033,7 +9395,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>45</v>
       </c>
@@ -9068,7 +9430,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -9103,7 +9465,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>24</v>
       </c>
@@ -9138,7 +9500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>26</v>
       </c>
@@ -9173,7 +9535,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>22</v>
       </c>
@@ -9208,7 +9570,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -9243,7 +9605,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>18</v>
       </c>
@@ -9278,7 +9640,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>25</v>
       </c>
@@ -9313,7 +9675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>15</v>
       </c>
@@ -9348,7 +9710,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>23</v>
       </c>
@@ -9383,7 +9745,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>50</v>
       </c>
@@ -9418,7 +9780,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>22</v>
       </c>
@@ -9453,7 +9815,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>12</v>
       </c>
@@ -9488,7 +9850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -9523,7 +9885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>52</v>
       </c>
@@ -9558,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -9593,7 +9955,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -9628,7 +9990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -9663,7 +10025,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>16</v>
       </c>
@@ -9698,7 +10060,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -9733,7 +10095,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -9768,7 +10130,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>53</v>
       </c>
@@ -9803,7 +10165,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -9838,7 +10200,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>16</v>
       </c>
@@ -9873,7 +10235,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -9908,7 +10270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>24</v>
       </c>
@@ -9943,7 +10305,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -9978,7 +10340,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -10013,7 +10375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -10048,7 +10410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -10083,7 +10445,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -10118,7 +10480,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -10153,7 +10515,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>24</v>
       </c>
@@ -10188,7 +10550,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>24</v>
       </c>
@@ -10223,7 +10585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -10258,7 +10620,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -10293,7 +10655,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>16</v>
       </c>
@@ -10328,7 +10690,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>15</v>
       </c>
@@ -10363,7 +10725,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>24</v>
       </c>
@@ -10398,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -10433,7 +10795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -10465,7 +10827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>26</v>
       </c>
@@ -10500,7 +10862,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>47</v>
       </c>
@@ -10535,7 +10897,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>24</v>
       </c>
@@ -10570,7 +10932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>23</v>
       </c>
@@ -10605,7 +10967,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -10640,7 +11002,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -10675,7 +11037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -10710,7 +11072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>16</v>
       </c>
@@ -10745,7 +11107,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -10780,7 +11142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>41</v>
       </c>
@@ -10815,7 +11177,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -10850,7 +11212,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>46</v>
       </c>
@@ -10885,7 +11247,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -10920,7 +11282,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -10955,7 +11317,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -10990,7 +11352,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>49</v>
       </c>
@@ -11025,7 +11387,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>51</v>
       </c>
@@ -11060,7 +11422,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1</v>
       </c>
@@ -11092,7 +11454,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -11127,7 +11489,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -11162,7 +11524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>18</v>
       </c>
@@ -11197,7 +11559,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -11232,7 +11594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -11267,7 +11629,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -11302,7 +11664,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -11337,7 +11699,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -11372,7 +11734,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -11407,7 +11769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -11442,7 +11804,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>18</v>
       </c>
@@ -11477,7 +11839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>14</v>
       </c>
@@ -11512,7 +11874,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -11547,7 +11909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -11582,7 +11944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>16</v>
       </c>
@@ -11617,7 +11979,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -11652,7 +12014,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -11687,7 +12049,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>45</v>
       </c>
@@ -11722,7 +12084,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>49</v>
       </c>
@@ -11757,7 +12119,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -11792,7 +12154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>45</v>
       </c>
@@ -11827,7 +12189,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -11862,7 +12224,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -11897,7 +12259,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -11932,7 +12294,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>18</v>
       </c>
@@ -11967,7 +12329,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -12002,7 +12364,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>15</v>
       </c>
@@ -12037,7 +12399,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -12072,7 +12434,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>24</v>
       </c>
@@ -12107,7 +12469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>9</v>
       </c>
@@ -12142,7 +12504,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>2</v>
       </c>
@@ -12177,7 +12539,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>41</v>
       </c>
@@ -12212,7 +12574,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -12244,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>18</v>
       </c>
@@ -12279,7 +12641,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -12314,7 +12676,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>48</v>
       </c>
@@ -12346,7 +12708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>23</v>
       </c>
@@ -12381,7 +12743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>23</v>
       </c>
@@ -12416,7 +12778,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>2</v>
       </c>
@@ -12451,7 +12813,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>3</v>
       </c>
@@ -12486,7 +12848,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -12521,7 +12883,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>15</v>
       </c>
@@ -12556,7 +12918,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>2</v>
       </c>
@@ -12591,7 +12953,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>24</v>
       </c>
@@ -12626,7 +12988,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>49</v>
       </c>
@@ -12661,7 +13023,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -12696,7 +13058,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>24</v>
       </c>
@@ -12731,7 +13093,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -12766,7 +13128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>16</v>
       </c>
@@ -12801,7 +13163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>9</v>
       </c>
@@ -12836,7 +13198,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>41</v>
       </c>
@@ -12871,7 +13233,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -12906,7 +13268,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>19</v>
       </c>
@@ -12941,7 +13303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -12976,7 +13338,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>54</v>
       </c>
@@ -13011,7 +13373,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -13046,7 +13408,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>11</v>
       </c>
@@ -13081,7 +13443,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -13116,7 +13478,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>8</v>
       </c>
@@ -13151,7 +13513,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>23</v>
       </c>
@@ -13186,7 +13548,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>24</v>
       </c>
@@ -13221,7 +13583,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>24</v>
       </c>
@@ -13253,7 +13615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>10</v>
       </c>
@@ -13288,7 +13650,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>24</v>
       </c>
@@ -13323,7 +13685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>53</v>
       </c>
@@ -13358,7 +13720,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>2</v>
       </c>
@@ -13393,7 +13755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>48</v>
       </c>
@@ -13428,7 +13790,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>2</v>
       </c>
@@ -13463,7 +13825,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>11</v>
       </c>
@@ -13495,7 +13857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -13530,7 +13892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -13565,7 +13927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>2</v>
       </c>
@@ -13600,7 +13962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -13635,7 +13997,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>41</v>
       </c>
@@ -13670,7 +14032,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -13705,7 +14067,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -13740,7 +14102,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>14</v>
       </c>
@@ -13775,7 +14137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>2</v>
       </c>
@@ -13810,7 +14172,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>14</v>
       </c>
@@ -13845,7 +14207,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>8</v>
       </c>
@@ -13880,7 +14242,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>47</v>
       </c>
@@ -13915,7 +14277,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>24</v>
       </c>
@@ -13950,7 +14312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>41</v>
       </c>
@@ -13985,7 +14347,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>50</v>
       </c>
@@ -14020,7 +14382,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>16</v>
       </c>
@@ -14055,7 +14417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>2</v>
       </c>
@@ -14090,7 +14452,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>19</v>
       </c>
@@ -14125,7 +14487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>26</v>
       </c>
@@ -14160,7 +14522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>50</v>
       </c>
@@ -14195,7 +14557,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>10</v>
       </c>
@@ -14230,7 +14592,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -14265,7 +14627,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>24</v>
       </c>
@@ -14300,7 +14662,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>18</v>
       </c>
@@ -14335,7 +14697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>14</v>
       </c>
@@ -14370,7 +14732,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>8</v>
       </c>
@@ -14405,7 +14767,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -14440,7 +14802,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>2</v>
       </c>
@@ -14475,7 +14837,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>26</v>
       </c>
@@ -14510,7 +14872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>24</v>
       </c>
@@ -14545,7 +14907,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>41</v>
       </c>
@@ -14580,7 +14942,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>14</v>
       </c>
@@ -14615,7 +14977,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>47</v>
       </c>
@@ -14650,7 +15012,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>19</v>
       </c>
@@ -14685,7 +15047,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1</v>
       </c>
@@ -14720,7 +15082,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>53</v>
       </c>
@@ -14755,7 +15117,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>3</v>
       </c>
@@ -14790,7 +15152,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>16</v>
       </c>
@@ -14822,7 +15184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>6</v>
       </c>
@@ -14857,7 +15219,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>10</v>
       </c>
@@ -14892,7 +15254,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>23</v>
       </c>
@@ -14927,7 +15289,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>16</v>
       </c>
@@ -14962,7 +15324,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -14997,7 +15359,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>2</v>
       </c>
@@ -15032,7 +15394,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -15064,7 +15426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>5</v>
       </c>
@@ -15099,7 +15461,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>53</v>
       </c>
@@ -15134,7 +15496,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>14</v>
       </c>
@@ -15169,7 +15531,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>8</v>
       </c>
@@ -15204,7 +15566,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1</v>
       </c>
@@ -15239,7 +15601,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>22</v>
       </c>
@@ -15274,7 +15636,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>3</v>
       </c>
@@ -15309,7 +15671,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>10</v>
       </c>
@@ -15344,7 +15706,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>10</v>
       </c>
@@ -15379,7 +15741,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>48</v>
       </c>
@@ -15414,7 +15776,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>6</v>
       </c>
@@ -15449,7 +15811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -15481,7 +15843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>7</v>
       </c>
@@ -15516,7 +15878,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>3</v>
       </c>
@@ -15551,7 +15913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>8</v>
       </c>
@@ -15586,7 +15948,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>6</v>
       </c>
@@ -15621,7 +15983,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>16</v>
       </c>
@@ -15656,7 +16018,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -15691,7 +16053,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>26</v>
       </c>
@@ -15726,7 +16088,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>16</v>
       </c>
@@ -15761,7 +16123,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>9</v>
       </c>
@@ -15796,7 +16158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>12</v>
       </c>
@@ -15831,7 +16193,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>19</v>
       </c>
@@ -15866,7 +16228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>8</v>
       </c>
@@ -15901,7 +16263,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>2</v>
       </c>
@@ -15936,7 +16298,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>7</v>
       </c>
@@ -15971,7 +16333,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>26</v>
       </c>
@@ -16006,7 +16368,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>8</v>
       </c>
@@ -16041,7 +16403,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -16076,7 +16438,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>24</v>
       </c>
@@ -16111,7 +16473,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>8</v>
       </c>
@@ -16146,7 +16508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>26</v>
       </c>
@@ -16178,7 +16540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>2</v>
       </c>
@@ -16210,7 +16572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>8</v>
       </c>
@@ -16245,7 +16607,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>11</v>
       </c>
@@ -16280,7 +16642,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>14</v>
       </c>
@@ -16315,7 +16677,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>16</v>
       </c>
@@ -16350,7 +16712,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>5</v>
       </c>
@@ -16385,7 +16747,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>24</v>
       </c>
@@ -16420,7 +16782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>2</v>
       </c>
@@ -16452,7 +16814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -16487,7 +16849,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>5</v>
       </c>
@@ -16522,7 +16884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>11</v>
       </c>
@@ -16557,7 +16919,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>16</v>
       </c>
@@ -16592,7 +16954,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>26</v>
       </c>
@@ -16627,7 +16989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>22</v>
       </c>
@@ -16662,7 +17024,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>16</v>
       </c>
@@ -16694,7 +17056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>8</v>
       </c>
@@ -16729,7 +17091,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>24</v>
       </c>
@@ -16764,7 +17126,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1</v>
       </c>
@@ -16799,7 +17161,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>16</v>
       </c>
@@ -16831,7 +17193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>16</v>
       </c>
@@ -16866,7 +17228,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>24</v>
       </c>
@@ -16901,7 +17263,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -16936,7 +17298,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>3</v>
       </c>
@@ -16971,7 +17333,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>25</v>
       </c>
@@ -17006,7 +17368,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>25</v>
       </c>
@@ -17041,7 +17403,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -17076,7 +17438,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>17</v>
       </c>
@@ -17111,7 +17473,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>8</v>
       </c>
@@ -17146,7 +17508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>9</v>
       </c>
@@ -17181,7 +17543,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>24</v>
       </c>
@@ -17216,7 +17578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>19</v>
       </c>
@@ -17248,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1</v>
       </c>
@@ -17283,7 +17645,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>26</v>
       </c>
@@ -17318,7 +17680,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -17353,7 +17715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>10</v>
       </c>
@@ -17388,7 +17750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>20</v>
       </c>
@@ -17423,7 +17785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>53</v>
       </c>
@@ -17458,7 +17820,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>22</v>
       </c>
@@ -17493,7 +17855,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>18</v>
       </c>
@@ -17528,7 +17890,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>15</v>
       </c>
@@ -17563,7 +17925,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>10</v>
       </c>
@@ -17598,7 +17960,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>19</v>
       </c>
@@ -17633,7 +17995,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>6</v>
       </c>
@@ -17668,7 +18030,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>24</v>
       </c>
@@ -17703,7 +18065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>24</v>
       </c>
@@ -17738,7 +18100,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>24</v>
       </c>
@@ -17770,7 +18132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>5</v>
       </c>
@@ -17805,7 +18167,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>11</v>
       </c>
@@ -17840,7 +18202,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>9</v>
       </c>
@@ -17875,7 +18237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>25</v>
       </c>
@@ -17910,7 +18272,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>19</v>
       </c>
@@ -17945,7 +18307,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>5</v>
       </c>
@@ -17980,7 +18342,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>14</v>
       </c>
@@ -18015,7 +18377,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>55</v>
       </c>
@@ -18050,7 +18412,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>20</v>
       </c>
@@ -18085,7 +18447,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -18120,7 +18482,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>22</v>
       </c>
@@ -18155,7 +18517,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>15</v>
       </c>
@@ -18190,7 +18552,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>20</v>
       </c>
@@ -18225,7 +18587,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>24</v>
       </c>
@@ -18260,7 +18622,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>14</v>
       </c>
@@ -18295,7 +18657,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>8</v>
       </c>
@@ -18330,7 +18692,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -18365,7 +18727,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>18</v>
       </c>
@@ -18400,7 +18762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -18432,7 +18794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>6</v>
       </c>
@@ -18467,7 +18829,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>8</v>
       </c>
@@ -18502,7 +18864,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>20</v>
       </c>
@@ -18537,7 +18899,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>47</v>
       </c>
@@ -18572,7 +18934,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>20</v>
       </c>
@@ -18607,7 +18969,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>3</v>
       </c>
@@ -18642,7 +19004,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>19</v>
       </c>
@@ -18677,7 +19039,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>18</v>
       </c>
@@ -18712,7 +19074,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -18747,7 +19109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1</v>
       </c>
@@ -18782,7 +19144,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>50</v>
       </c>
@@ -18817,7 +19179,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>11</v>
       </c>
@@ -18852,7 +19214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1</v>
       </c>
@@ -18887,7 +19249,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>17</v>
       </c>
@@ -18922,7 +19284,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>12</v>
       </c>
@@ -18957,7 +19319,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>21</v>
       </c>
@@ -18992,7 +19354,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>52</v>
       </c>
@@ -19027,7 +19389,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>8</v>
       </c>
@@ -19062,7 +19424,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>8</v>
       </c>
@@ -19097,7 +19459,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>24</v>
       </c>
@@ -19132,7 +19494,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>14</v>
       </c>
@@ -19167,7 +19529,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>6</v>
       </c>
@@ -19202,7 +19564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>22</v>
       </c>
@@ -19237,7 +19599,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>2</v>
       </c>
@@ -19272,7 +19634,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>18</v>
       </c>
@@ -19304,7 +19666,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>14</v>
       </c>
@@ -19339,7 +19701,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>24</v>
       </c>
@@ -19374,7 +19736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>10</v>
       </c>
@@ -19409,7 +19771,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>20</v>
       </c>
@@ -19444,7 +19806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>11</v>
       </c>
@@ -19479,7 +19841,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>23</v>
       </c>
@@ -19514,7 +19876,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>16</v>
       </c>
@@ -19546,7 +19908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>14</v>
       </c>
@@ -19581,7 +19943,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>47</v>
       </c>
@@ -19616,7 +19978,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>6</v>
       </c>
@@ -19651,7 +20013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>8</v>
       </c>
@@ -19686,7 +20048,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>4</v>
       </c>
@@ -19721,7 +20083,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>24</v>
       </c>
@@ -19756,7 +20118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>7</v>
       </c>
@@ -19791,7 +20153,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>22</v>
       </c>
@@ -19826,7 +20188,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>23</v>
       </c>
@@ -19861,7 +20223,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>24</v>
       </c>
@@ -19896,7 +20258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>6</v>
       </c>
@@ -19931,7 +20293,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>11</v>
       </c>
@@ -19966,7 +20328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>24</v>
       </c>
@@ -20001,7 +20363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>8</v>
       </c>
@@ -20036,7 +20398,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>15</v>
       </c>
@@ -20071,7 +20433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>13</v>
       </c>
@@ -20106,7 +20468,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>6</v>
       </c>
@@ -20141,7 +20503,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>24</v>
       </c>
@@ -20176,7 +20538,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>16</v>
       </c>
@@ -20211,7 +20573,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>5</v>
       </c>
@@ -20246,7 +20608,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>5</v>
       </c>
@@ -20281,7 +20643,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>6</v>
       </c>
@@ -20316,7 +20678,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>47</v>
       </c>
@@ -20351,7 +20713,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>15</v>
       </c>
@@ -20386,7 +20748,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>12</v>
       </c>
@@ -20421,7 +20783,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>24</v>
       </c>
@@ -20456,7 +20818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>8</v>
       </c>
@@ -20491,7 +20853,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>17</v>
       </c>
@@ -20526,7 +20888,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>8</v>
       </c>
@@ -20561,7 +20923,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>7</v>
       </c>
@@ -20596,7 +20958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>6</v>
       </c>
@@ -20631,7 +20993,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="512" spans="1:11">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>26</v>
       </c>
@@ -20666,7 +21028,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="513" spans="1:11">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>2</v>
       </c>
@@ -20698,7 +21060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>24</v>
       </c>
@@ -20733,7 +21095,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>24</v>
       </c>
@@ -20768,7 +21130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>19</v>
       </c>
@@ -20800,7 +21162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1</v>
       </c>
@@ -20835,7 +21197,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>15</v>
       </c>
@@ -20870,7 +21232,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>8</v>
       </c>
@@ -20905,7 +21267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>6</v>
       </c>
@@ -20940,7 +21302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1</v>
       </c>
@@ -20972,7 +21334,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>56</v>
       </c>
@@ -21007,7 +21369,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>22</v>
       </c>
@@ -21042,7 +21404,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>19</v>
       </c>
@@ -21077,7 +21439,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>17</v>
       </c>
@@ -21112,7 +21474,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>6</v>
       </c>
@@ -21147,7 +21509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:11">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>24</v>
       </c>
@@ -21179,7 +21541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>55</v>
       </c>
@@ -21214,7 +21576,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="529" spans="1:11">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>24</v>
       </c>
@@ -21249,7 +21611,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="530" spans="1:11">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>53</v>
       </c>
@@ -21284,7 +21646,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>52</v>
       </c>
@@ -21319,7 +21681,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="532" spans="1:11">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>17</v>
       </c>
@@ -21354,7 +21716,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>18</v>
       </c>
@@ -21389,7 +21751,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>23</v>
       </c>
@@ -21424,7 +21786,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>14</v>
       </c>
@@ -21459,7 +21821,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>6</v>
       </c>
@@ -21494,7 +21856,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>10</v>
       </c>
@@ -21529,7 +21891,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>24</v>
       </c>
@@ -21564,7 +21926,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="539" spans="1:11">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>2</v>
       </c>
@@ -21599,7 +21961,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="540" spans="1:11">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>47</v>
       </c>
@@ -21634,7 +21996,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="541" spans="1:11">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>10</v>
       </c>
@@ -21669,7 +22031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>24</v>
       </c>
@@ -21701,7 +22063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>52</v>
       </c>
@@ -21736,7 +22098,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="544" spans="1:11">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>5</v>
       </c>
@@ -21768,7 +22130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="545" spans="1:11">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>50</v>
       </c>
@@ -21803,7 +22165,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>6</v>
       </c>
@@ -21838,7 +22200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>53</v>
       </c>
@@ -21873,7 +22235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="548" spans="1:11">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>14</v>
       </c>
@@ -21908,7 +22270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="549" spans="1:11">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>8</v>
       </c>
@@ -21943,7 +22305,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="550" spans="1:11">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>8</v>
       </c>
@@ -21978,7 +22340,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>6</v>
       </c>
@@ -22010,7 +22372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>3</v>
       </c>
@@ -22045,7 +22407,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>24</v>
       </c>
@@ -22080,7 +22442,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1</v>
       </c>
@@ -22115,7 +22477,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>24</v>
       </c>
@@ -22150,7 +22512,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>5</v>
       </c>
@@ -22185,7 +22547,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="557" spans="1:11">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>2</v>
       </c>
@@ -22220,7 +22582,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="558" spans="1:11">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>5</v>
       </c>
@@ -22255,7 +22617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="559" spans="1:11">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>15</v>
       </c>
@@ -22290,7 +22652,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="560" spans="1:11">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>8</v>
       </c>
@@ -22325,7 +22687,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="561" spans="1:11">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -22360,7 +22722,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="562" spans="1:11">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>15</v>
       </c>
@@ -22395,7 +22757,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:11">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>6</v>
       </c>
@@ -22430,7 +22792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:11">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>17</v>
       </c>
@@ -22465,7 +22827,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="565" spans="1:11">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>19</v>
       </c>
@@ -22500,7 +22862,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="566" spans="1:11">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>19</v>
       </c>
@@ -22535,7 +22897,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="567" spans="1:11">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>8</v>
       </c>
@@ -22570,7 +22932,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="568" spans="1:11">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>12</v>
       </c>
@@ -22605,7 +22967,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="569" spans="1:11">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>23</v>
       </c>
@@ -22640,7 +23002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:11">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>47</v>
       </c>
@@ -22675,7 +23037,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="571" spans="1:11">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>6</v>
       </c>
@@ -22710,7 +23072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="572" spans="1:11">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>48</v>
       </c>
@@ -22745,7 +23107,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="573" spans="1:11">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1</v>
       </c>
@@ -22780,7 +23142,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="574" spans="1:11">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>17</v>
       </c>
@@ -22815,7 +23177,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="575" spans="1:11">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>24</v>
       </c>
@@ -22850,7 +23212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="576" spans="1:11">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>7</v>
       </c>
@@ -22885,7 +23247,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="577" spans="1:11">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>2</v>
       </c>
@@ -22920,7 +23282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:11">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>11</v>
       </c>
@@ -22955,7 +23317,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>18</v>
       </c>
@@ -22990,7 +23352,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>14</v>
       </c>
@@ -23025,7 +23387,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="581" spans="1:11">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>24</v>
       </c>
@@ -23060,7 +23422,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="582" spans="1:11">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>8</v>
       </c>
@@ -23095,7 +23457,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="583" spans="1:11">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>2</v>
       </c>
@@ -23130,7 +23492,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="584" spans="1:11">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>7</v>
       </c>
@@ -23165,7 +23527,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="585" spans="1:11">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>14</v>
       </c>
@@ -23200,7 +23562,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="586" spans="1:11">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>16</v>
       </c>
@@ -23235,7 +23597,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="587" spans="1:11">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>10</v>
       </c>
@@ -23270,7 +23632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="588" spans="1:11">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>8</v>
       </c>
@@ -23305,7 +23667,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="589" spans="1:11">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>19</v>
       </c>
@@ -23340,7 +23702,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="590" spans="1:11">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>16</v>
       </c>
@@ -23372,7 +23734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:11">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>8</v>
       </c>
@@ -23407,7 +23769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>21</v>
       </c>
@@ -23442,7 +23804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="593" spans="1:11">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>25</v>
       </c>
@@ -23477,7 +23839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="594" spans="1:11">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>24</v>
       </c>
@@ -23512,7 +23874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="595" spans="1:11">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>11</v>
       </c>
@@ -23547,7 +23909,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="596" spans="1:11">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>11</v>
       </c>
@@ -23582,7 +23944,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="597" spans="1:11">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>20</v>
       </c>
@@ -23617,7 +23979,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>20</v>
       </c>
@@ -23652,7 +24014,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="599" spans="1:11">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>5</v>
       </c>
@@ -23687,7 +24049,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>12</v>
       </c>
@@ -23722,7 +24084,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="601" spans="1:11">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>24</v>
       </c>
@@ -23757,7 +24119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="602" spans="1:11">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>23</v>
       </c>
@@ -23792,7 +24154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>45</v>
       </c>
@@ -23827,7 +24189,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="604" spans="1:11">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>8</v>
       </c>
@@ -23862,7 +24224,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="605" spans="1:11">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>24</v>
       </c>
@@ -23897,7 +24259,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="606" spans="1:11">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>55</v>
       </c>
@@ -23932,7 +24294,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="607" spans="1:11">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>24</v>
       </c>
@@ -23964,7 +24326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="608" spans="1:11">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>2</v>
       </c>
@@ -23999,7 +24361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="609" spans="1:11">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>24</v>
       </c>
@@ -24034,7 +24396,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>7</v>
       </c>
@@ -24069,7 +24431,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>24</v>
       </c>
@@ -24104,7 +24466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>7</v>
       </c>
@@ -24139,7 +24501,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="613" spans="1:11">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>56</v>
       </c>
@@ -24174,7 +24536,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="614" spans="1:11">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>16</v>
       </c>
@@ -24206,7 +24568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:11">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>3</v>
       </c>
@@ -24241,7 +24603,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="616" spans="1:11">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>9</v>
       </c>
@@ -24276,7 +24638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="617" spans="1:11">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>47</v>
       </c>
@@ -24311,7 +24673,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="618" spans="1:11">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>24</v>
       </c>
@@ -24346,7 +24708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="619" spans="1:11">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>7</v>
       </c>
@@ -24381,7 +24743,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="620" spans="1:11">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>16</v>
       </c>
@@ -24416,7 +24778,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="621" spans="1:11">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>8</v>
       </c>
@@ -24451,7 +24813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="622" spans="1:11">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>22</v>
       </c>
@@ -24486,7 +24848,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="623" spans="1:11">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>6</v>
       </c>
@@ -24521,7 +24883,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="624" spans="1:11">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>7</v>
       </c>
@@ -24556,7 +24918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="625" spans="1:11">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>47</v>
       </c>
@@ -24591,7 +24953,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="626" spans="1:11">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>9</v>
       </c>
@@ -24626,7 +24988,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="627" spans="1:11">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>7</v>
       </c>
@@ -24661,7 +25023,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="628" spans="1:11">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>19</v>
       </c>
@@ -24696,7 +25058,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="629" spans="1:11">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>6</v>
       </c>
@@ -24731,7 +25093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="630" spans="1:11">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>24</v>
       </c>
@@ -24766,7 +25128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="631" spans="1:11">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -24801,7 +25163,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="632" spans="1:11">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>57</v>
       </c>
@@ -24836,7 +25198,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="633" spans="1:11">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>2</v>
       </c>
@@ -24871,7 +25233,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="634" spans="1:11">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>16</v>
       </c>
@@ -24906,7 +25268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="635" spans="1:11">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>14</v>
       </c>
@@ -24941,7 +25303,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="636" spans="1:11">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>45</v>
       </c>
@@ -24976,7 +25338,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="637" spans="1:11">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>17</v>
       </c>
@@ -25011,7 +25373,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="638" spans="1:11">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>13</v>
       </c>
@@ -25043,7 +25405,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="639" spans="1:11">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>6</v>
       </c>
@@ -25078,7 +25440,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="640" spans="1:11">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>6</v>
       </c>
@@ -25113,7 +25475,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="641" spans="1:11">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>7</v>
       </c>
@@ -25148,7 +25510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="642" spans="1:11">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>10</v>
       </c>
@@ -25183,7 +25545,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="643" spans="1:11">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>26</v>
       </c>
@@ -25218,7 +25580,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="644" spans="1:11">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>22</v>
       </c>
@@ -25253,7 +25615,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="645" spans="1:11">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>41</v>
       </c>
@@ -25288,7 +25650,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="646" spans="1:11">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>24</v>
       </c>
@@ -25323,7 +25685,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="647" spans="1:11">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>6</v>
       </c>
@@ -25358,7 +25720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="648" spans="1:11">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>24</v>
       </c>
@@ -25393,7 +25755,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="649" spans="1:11">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>8</v>
       </c>
@@ -25428,7 +25790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="650" spans="1:11">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>2</v>
       </c>
@@ -25463,7 +25825,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="651" spans="1:11">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>8</v>
       </c>
@@ -25498,7 +25860,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="652" spans="1:11">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>7</v>
       </c>
@@ -25530,7 +25892,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="653" spans="1:11">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>6</v>
       </c>
@@ -25565,7 +25927,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="654" spans="1:11">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>18</v>
       </c>
@@ -25600,7 +25962,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="655" spans="1:11">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1</v>
       </c>
@@ -25635,7 +25997,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="656" spans="1:11">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>3</v>
       </c>
@@ -25670,7 +26032,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="657" spans="1:11">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>24</v>
       </c>
@@ -25705,7 +26067,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="658" spans="1:11">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>2</v>
       </c>
@@ -25740,7 +26102,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="659" spans="1:11">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>5</v>
       </c>
@@ -25775,7 +26137,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="660" spans="1:11">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>2</v>
       </c>
@@ -25810,7 +26172,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="661" spans="1:11">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>19</v>
       </c>
@@ -25845,7 +26207,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="662" spans="1:11">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>23</v>
       </c>
@@ -25880,7 +26242,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="663" spans="1:11">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>52</v>
       </c>
@@ -25915,7 +26277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="664" spans="1:11">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1</v>
       </c>
@@ -25947,7 +26309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="665" spans="1:11">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>25</v>
       </c>
@@ -25982,7 +26344,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="666" spans="1:11">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>24</v>
       </c>
@@ -26017,7 +26379,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="667" spans="1:11">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>24</v>
       </c>
@@ -26052,7 +26414,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="668" spans="1:11">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>8</v>
       </c>
@@ -26087,7 +26449,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="669" spans="1:11">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>19</v>
       </c>
@@ -26122,7 +26484,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="670" spans="1:11">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>6</v>
       </c>
@@ -26157,7 +26519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="671" spans="1:11">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>24</v>
       </c>
@@ -26192,7 +26554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="672" spans="1:11">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>13</v>
       </c>
@@ -26227,7 +26589,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="673" spans="1:11">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>24</v>
       </c>
@@ -26262,7 +26624,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="674" spans="1:11">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>8</v>
       </c>
@@ -26297,7 +26659,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="675" spans="1:11">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>11</v>
       </c>
@@ -26332,7 +26694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="676" spans="1:11">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>10</v>
       </c>
@@ -26367,7 +26729,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="677" spans="1:11">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>15</v>
       </c>
@@ -26402,7 +26764,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="678" spans="1:11">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>52</v>
       </c>
@@ -26437,7 +26799,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="679" spans="1:11">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>3</v>
       </c>
@@ -26472,7 +26834,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="680" spans="1:11">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>2</v>
       </c>
@@ -26507,7 +26869,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="681" spans="1:11">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>9</v>
       </c>
@@ -26542,7 +26904,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="682" spans="1:11">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>11</v>
       </c>
@@ -26577,7 +26939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="683" spans="1:11">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>8</v>
       </c>
@@ -26612,7 +26974,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="684" spans="1:11">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>16</v>
       </c>
@@ -26647,7 +27009,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="685" spans="1:11">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>7</v>
       </c>
@@ -26682,7 +27044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="686" spans="1:11">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>11</v>
       </c>
@@ -26717,7 +27079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="687" spans="1:11">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>5</v>
       </c>
@@ -26752,7 +27114,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="688" spans="1:11">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>8</v>
       </c>
@@ -26787,7 +27149,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="689" spans="1:11">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>5</v>
       </c>
@@ -26822,7 +27184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="690" spans="1:11">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>45</v>
       </c>
@@ -26857,7 +27219,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="691" spans="1:11">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>11</v>
       </c>
@@ -26892,7 +27254,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="692" spans="1:11">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>4</v>
       </c>
@@ -26927,7 +27289,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="693" spans="1:11">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>14</v>
       </c>
@@ -26962,7 +27324,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="694" spans="1:11">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>7</v>
       </c>
@@ -26997,7 +27359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="695" spans="1:11">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>15</v>
       </c>
@@ -27032,7 +27394,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="696" spans="1:11">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>19</v>
       </c>
@@ -27067,7 +27429,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="697" spans="1:11">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>22</v>
       </c>
@@ -27102,7 +27464,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="698" spans="1:11">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>2</v>
       </c>
@@ -27137,7 +27499,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="699" spans="1:11">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>18</v>
       </c>
@@ -27172,7 +27534,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="700" spans="1:11">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>24</v>
       </c>
@@ -27207,7 +27569,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="701" spans="1:11">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>8</v>
       </c>
@@ -27242,7 +27604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="702" spans="1:11">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>8</v>
       </c>
@@ -27277,7 +27639,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="703" spans="1:11">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>8</v>
       </c>
@@ -27312,7 +27674,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="704" spans="1:11">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>24</v>
       </c>
@@ -27347,7 +27709,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="705" spans="1:11">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>5</v>
       </c>
@@ -27382,7 +27744,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="706" spans="1:11">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>3</v>
       </c>
@@ -27417,7 +27779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:11">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>24</v>
       </c>
@@ -27452,7 +27814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="708" spans="1:11">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>20</v>
       </c>
@@ -27487,7 +27849,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="709" spans="1:11">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>26</v>
       </c>
@@ -27522,7 +27884,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="710" spans="1:11">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>24</v>
       </c>
@@ -27557,7 +27919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:11">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>7</v>
       </c>
@@ -27592,7 +27954,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="712" spans="1:11">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>8</v>
       </c>
@@ -27627,7 +27989,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="713" spans="1:11">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>2</v>
       </c>
@@ -27662,7 +28024,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="714" spans="1:11">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>7</v>
       </c>
@@ -27697,7 +28059,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="715" spans="1:11">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>24</v>
       </c>
@@ -27732,7 +28094,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="716" spans="1:11">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>11</v>
       </c>
@@ -27767,7 +28129,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="717" spans="1:11">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>47</v>
       </c>
@@ -27802,7 +28164,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="718" spans="1:11">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>8</v>
       </c>
@@ -27837,7 +28199,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="719" spans="1:11">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>18</v>
       </c>
@@ -27872,7 +28234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="720" spans="1:11">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>8</v>
       </c>
@@ -27907,7 +28269,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="721" spans="1:11">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>14</v>
       </c>
@@ -27942,7 +28304,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="722" spans="1:11">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>26</v>
       </c>
@@ -27977,7 +28339,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="723" spans="1:11">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>15</v>
       </c>
@@ -28012,7 +28374,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="724" spans="1:11">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>7</v>
       </c>
@@ -28047,7 +28409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="725" spans="1:11">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>26</v>
       </c>
@@ -28082,7 +28444,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="726" spans="1:11">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1</v>
       </c>
@@ -28117,7 +28479,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="727" spans="1:11">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>48</v>
       </c>
@@ -28152,7 +28514,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="728" spans="1:11">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>14</v>
       </c>
@@ -28187,7 +28549,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="729" spans="1:11">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>18</v>
       </c>
@@ -28222,7 +28584,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="730" spans="1:11">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>7</v>
       </c>
@@ -28257,7 +28619,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="731" spans="1:11">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>51</v>
       </c>
@@ -28292,7 +28654,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="732" spans="1:11">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>7</v>
       </c>
@@ -28327,7 +28689,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="733" spans="1:11">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>9</v>
       </c>
@@ -28362,7 +28724,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="734" spans="1:11">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>18</v>
       </c>
@@ -28397,7 +28759,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="735" spans="1:11">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>58</v>
       </c>
@@ -28432,7 +28794,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="736" spans="1:11">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>24</v>
       </c>
@@ -28467,7 +28829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="737" spans="1:11">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>22</v>
       </c>
@@ -28502,7 +28864,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="738" spans="1:11">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>19</v>
       </c>
@@ -28537,7 +28899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="739" spans="1:11">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>23</v>
       </c>
@@ -28572,7 +28934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="740" spans="1:11">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>16</v>
       </c>
@@ -28607,7 +28969,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="741" spans="1:11">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>9</v>
       </c>
@@ -28642,7 +29004,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="742" spans="1:11">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>7</v>
       </c>
@@ -28677,7 +29039,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="743" spans="1:11">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>10</v>
       </c>
@@ -28712,7 +29074,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="744" spans="1:11">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>7</v>
       </c>
@@ -28744,7 +29106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="745" spans="1:11">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>15</v>
       </c>
@@ -28779,7 +29141,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="746" spans="1:11">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>46</v>
       </c>
@@ -28814,7 +29176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="747" spans="1:11">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>8</v>
       </c>
@@ -28849,7 +29211,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="748" spans="1:11">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>7</v>
       </c>
@@ -28884,7 +29246,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="749" spans="1:11">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>6</v>
       </c>
@@ -28919,7 +29281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="750" spans="1:11">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>3</v>
       </c>
@@ -28951,7 +29313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="751" spans="1:11">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>11</v>
       </c>
@@ -28986,7 +29348,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="752" spans="1:11">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>15</v>
       </c>
@@ -29021,7 +29383,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="753" spans="1:11">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>6</v>
       </c>
@@ -29053,7 +29415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:11">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>41</v>
       </c>
@@ -29088,7 +29450,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="755" spans="1:11">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>11</v>
       </c>
@@ -29123,7 +29485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="756" spans="1:11">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>21</v>
       </c>
@@ -29158,7 +29520,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="757" spans="1:11">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>23</v>
       </c>
@@ -29193,7 +29555,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="758" spans="1:11">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1</v>
       </c>
@@ -29225,7 +29587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="759" spans="1:11">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>24</v>
       </c>
@@ -29260,7 +29622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="760" spans="1:11">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>19</v>
       </c>
@@ -29295,7 +29657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="761" spans="1:11">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>22</v>
       </c>
@@ -29330,7 +29692,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="762" spans="1:11">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>6</v>
       </c>
@@ -29365,7 +29727,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="763" spans="1:11">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>6</v>
       </c>
@@ -29400,7 +29762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="764" spans="1:11">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>19</v>
       </c>
@@ -29435,7 +29797,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="765" spans="1:11">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>19</v>
       </c>
@@ -29470,7 +29832,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="766" spans="1:11">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>15</v>
       </c>
@@ -29505,7 +29867,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="767" spans="1:11">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>24</v>
       </c>
@@ -29540,7 +29902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="768" spans="1:11">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>24</v>
       </c>
@@ -29575,7 +29937,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="769" spans="1:11">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>14</v>
       </c>
@@ -29610,7 +29972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="770" spans="1:11">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>12</v>
       </c>
@@ -29645,7 +30007,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="771" spans="1:11">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>22</v>
       </c>
@@ -29680,7 +30042,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="772" spans="1:11">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>12</v>
       </c>
@@ -29715,7 +30077,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="773" spans="1:11">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>16</v>
       </c>
@@ -29750,7 +30112,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="774" spans="1:11">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>7</v>
       </c>
@@ -29785,7 +30147,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="775" spans="1:11">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>2</v>
       </c>
@@ -29820,7 +30182,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="776" spans="1:11">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>16</v>
       </c>
@@ -29855,7 +30217,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="777" spans="1:11">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>9</v>
       </c>
@@ -29890,7 +30252,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="778" spans="1:11">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>15</v>
       </c>
@@ -29925,7 +30287,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="779" spans="1:11">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>11</v>
       </c>
@@ -29957,7 +30319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="780" spans="1:11">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>24</v>
       </c>
@@ -29992,7 +30354,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="781" spans="1:11">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>8</v>
       </c>
@@ -30027,7 +30389,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="782" spans="1:11">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>12</v>
       </c>
@@ -30062,7 +30424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="783" spans="1:11">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>5</v>
       </c>
@@ -30097,7 +30459,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="784" spans="1:11">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>3</v>
       </c>
@@ -30132,7 +30494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="785" spans="1:11">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1</v>
       </c>
@@ -30167,7 +30529,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="786" spans="1:11">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>54</v>
       </c>
@@ -30202,7 +30564,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="787" spans="1:11">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>16</v>
       </c>
@@ -30234,7 +30596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:11">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>8</v>
       </c>
@@ -30269,7 +30631,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="789" spans="1:11">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>11</v>
       </c>
@@ -30304,7 +30666,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="790" spans="1:11">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>16</v>
       </c>
@@ -30339,7 +30701,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="791" spans="1:11">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>7</v>
       </c>
@@ -30374,7 +30736,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="792" spans="1:11">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>14</v>
       </c>
@@ -30409,7 +30771,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="793" spans="1:11">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>19</v>
       </c>
@@ -30444,7 +30806,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="794" spans="1:11">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>8</v>
       </c>
@@ -30479,7 +30841,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="795" spans="1:11">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>7</v>
       </c>
@@ -30514,7 +30876,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="796" spans="1:11">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>8</v>
       </c>
@@ -30549,7 +30911,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="797" spans="1:11">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>19</v>
       </c>
@@ -30584,7 +30946,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="798" spans="1:11">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>19</v>
       </c>
@@ -30619,7 +30981,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="799" spans="1:11">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>16</v>
       </c>
@@ -30654,7 +31016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="800" spans="1:11">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>19</v>
       </c>
@@ -30689,7 +31051,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="801" spans="1:11">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>19</v>
       </c>
@@ -30724,7 +31086,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="802" spans="1:11">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1</v>
       </c>
@@ -30759,7 +31121,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="803" spans="1:11">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>24</v>
       </c>
@@ -30791,7 +31153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="804" spans="1:11">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>19</v>
       </c>
@@ -30826,7 +31188,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="805" spans="1:11">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>24</v>
       </c>
@@ -30861,7 +31223,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="806" spans="1:11">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>24</v>
       </c>
@@ -30896,7 +31258,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="807" spans="1:11">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>16</v>
       </c>
@@ -30928,7 +31290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:11">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>26</v>
       </c>
@@ -30963,7 +31325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="809" spans="1:11">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>54</v>
       </c>
@@ -30998,7 +31360,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="810" spans="1:11">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>16</v>
       </c>
@@ -31033,7 +31395,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="811" spans="1:11">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>18</v>
       </c>
@@ -31068,7 +31430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="812" spans="1:11">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>26</v>
       </c>
@@ -31103,7 +31465,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="813" spans="1:11">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>19</v>
       </c>
@@ -31138,7 +31500,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="814" spans="1:11">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>24</v>
       </c>
@@ -31173,7 +31535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="815" spans="1:11">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>19</v>
       </c>
@@ -31208,7 +31570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="816" spans="1:11">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>16</v>
       </c>
@@ -31243,7 +31605,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="817" spans="1:11">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>26</v>
       </c>
@@ -31278,7 +31640,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="818" spans="1:11">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>12</v>
       </c>
@@ -31313,7 +31675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:11">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>49</v>
       </c>
@@ -31348,7 +31710,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="820" spans="1:11">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>25</v>
       </c>
@@ -31383,7 +31745,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="821" spans="1:11">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>12</v>
       </c>
@@ -31418,7 +31780,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="822" spans="1:11">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>54</v>
       </c>
@@ -31453,7 +31815,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="823" spans="1:11">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>56</v>
       </c>
@@ -31488,7 +31850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="824" spans="1:11">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>10</v>
       </c>
@@ -31523,7 +31885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="825" spans="1:11">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>16</v>
       </c>
@@ -31558,7 +31920,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="826" spans="1:11">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>16</v>
       </c>
@@ -31593,7 +31955,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="827" spans="1:11">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>17</v>
       </c>
@@ -31628,7 +31990,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="828" spans="1:11">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>26</v>
       </c>
@@ -31663,7 +32025,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="829" spans="1:11">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>18</v>
       </c>
@@ -31698,7 +32060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="830" spans="1:11">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>5</v>
       </c>
@@ -31733,7 +32095,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="831" spans="1:11">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>41</v>
       </c>
@@ -31768,7 +32130,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="832" spans="1:11">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>9</v>
       </c>
@@ -31803,7 +32165,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="833" spans="1:11">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>49</v>
       </c>
@@ -31838,7 +32200,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="834" spans="1:11">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>2</v>
       </c>
@@ -31873,7 +32235,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="835" spans="1:11">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>16</v>
       </c>
@@ -31908,7 +32270,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="836" spans="1:11">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>26</v>
       </c>
@@ -31943,7 +32305,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="837" spans="1:11">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>14</v>
       </c>
@@ -31978,7 +32340,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="838" spans="1:11">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>7</v>
       </c>
@@ -32013,7 +32375,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="839" spans="1:11">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>8</v>
       </c>
@@ -32045,7 +32407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="840" spans="1:11">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>8</v>
       </c>
@@ -32080,7 +32442,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="841" spans="1:11">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>9</v>
       </c>
@@ -32115,7 +32477,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="842" spans="1:11">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>25</v>
       </c>
@@ -32150,7 +32512,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="843" spans="1:11">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>15</v>
       </c>
@@ -32185,7 +32547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="844" spans="1:11">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>16</v>
       </c>
@@ -32220,7 +32582,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="845" spans="1:11">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>16</v>
       </c>
@@ -32255,7 +32617,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="846" spans="1:11">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>22</v>
       </c>
@@ -32290,7 +32652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="847" spans="1:11">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>18</v>
       </c>
@@ -32325,7 +32687,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="848" spans="1:11">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>25</v>
       </c>
@@ -32360,7 +32722,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="849" spans="1:11">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>8</v>
       </c>
@@ -32395,7 +32757,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="850" spans="1:11">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>16</v>
       </c>
@@ -32430,7 +32792,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="851" spans="1:11">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>7</v>
       </c>
@@ -32465,7 +32827,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="852" spans="1:11">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>16</v>
       </c>
@@ -32497,7 +32859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:11">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>2</v>
       </c>
@@ -32532,7 +32894,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="854" spans="1:11">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>2</v>
       </c>
@@ -32564,7 +32926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="855" spans="1:11">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>7</v>
       </c>
@@ -32599,7 +32961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="856" spans="1:11">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>10</v>
       </c>
@@ -32634,7 +32996,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="857" spans="1:11">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>16</v>
       </c>
@@ -32666,7 +33028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="858" spans="1:11">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>16</v>
       </c>
@@ -32698,7 +33060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:11">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>49</v>
       </c>
@@ -32733,7 +33095,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="860" spans="1:11">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>19</v>
       </c>
@@ -32768,7 +33130,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="861" spans="1:11">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>47</v>
       </c>
@@ -32803,7 +33165,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="862" spans="1:11">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>56</v>
       </c>
@@ -32835,7 +33197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="863" spans="1:11">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
         <v>0</v>
       </c>
@@ -32870,7 +33232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="864" spans="1:11">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B864">
         <f>ROUND(AVERAGE(B2:B862),2)</f>
         <v>4.07</v>
@@ -32929,7 +33291,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
+++ b/Research_Bucket/Android_UserRatings/data/Spring_2015/Spring2015.xlsx
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
